--- a/采购单规范v0.2/发票-凭证表.xlsx
+++ b/采购单规范v0.2/发票-凭证表.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weipe\Documents\GitHub\About_Money\采购单规范v0.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4848" yWindow="-60" windowWidth="19392" windowHeight="7608"/>
+    <workbookView xWindow="4845" yWindow="-60" windowWidth="19395" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="589">
   <si>
     <t>﻿序号</t>
   </si>
@@ -2798,12 +2793,30 @@
     <t>2016-07-27 创意组 魏鹏 79.20元</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>17273976</t>
+  </si>
+  <si>
+    <t>杨秉文</t>
+  </si>
+  <si>
+    <t>2016-11-11 电磁组 杨秉文 796.00元</t>
+  </si>
+  <si>
+    <t>111001473051</t>
+  </si>
+  <si>
+    <t>110108754673826</t>
+  </si>
+  <si>
+    <t>北京国税</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2966,7 +2979,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3008,7 +3021,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3040,10 +3053,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3075,7 +3087,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3251,24 +3262,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="H157" sqref="H157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="35.625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3294,7 +3305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3312,7 +3323,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3332,7 +3343,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3352,7 +3363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3372,7 +3383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3389,7 +3400,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3409,7 +3420,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3429,7 +3440,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3446,7 +3457,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3463,7 +3474,7 @@
         <v>1081.5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3483,7 +3494,7 @@
         <v>349.6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3510,7 +3521,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3537,7 +3548,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3564,7 +3575,7 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3591,7 +3602,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3618,7 +3629,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3645,7 +3656,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3672,7 +3683,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3699,7 +3710,7 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3726,7 +3737,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3753,7 +3764,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3780,7 +3791,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3807,7 +3818,7 @@
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3833,7 +3844,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3859,7 +3870,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3885,7 +3896,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3911,7 +3922,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3937,7 +3948,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3963,7 +3974,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3989,7 +4000,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4015,7 +4026,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4041,7 +4052,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4067,7 +4078,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4093,7 +4104,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4119,7 +4130,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4145,7 +4156,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4171,7 +4182,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4197,7 +4208,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4223,7 +4234,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4249,7 +4260,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4275,7 +4286,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4301,7 +4312,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4327,7 +4338,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4350,7 +4361,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4376,7 +4387,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4402,7 +4413,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4435,7 +4446,7 @@
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4466,7 +4477,7 @@
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4499,7 +4510,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4530,7 +4541,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4564,7 +4575,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4598,7 +4609,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4627,7 +4638,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4656,7 +4667,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4685,7 +4696,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4714,7 +4725,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4743,7 +4754,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4772,7 +4783,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4801,7 +4812,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4830,7 +4841,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4859,7 +4870,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4888,7 +4899,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4917,7 +4928,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4946,7 +4957,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4975,7 +4986,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5004,7 +5015,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5033,7 +5044,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5062,7 +5073,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5091,7 +5102,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5120,7 +5131,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5149,7 +5160,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5178,7 +5189,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5207,7 +5218,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5236,7 +5247,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5265,7 +5276,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5294,7 +5305,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5323,7 +5334,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5352,7 +5363,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5384,7 +5395,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5413,7 +5424,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5442,7 +5453,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5471,7 +5482,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5500,7 +5511,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5529,7 +5540,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5558,7 +5569,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5587,7 +5598,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5616,7 +5627,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5645,7 +5656,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5674,7 +5685,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5703,7 +5714,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5732,7 +5743,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5761,7 +5772,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5790,7 +5801,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5816,7 +5827,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5845,7 +5856,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5874,7 +5885,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5903,7 +5914,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5932,7 +5943,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5961,7 +5972,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5990,7 +6001,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6019,7 +6030,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6048,7 +6059,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6077,7 +6088,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6106,7 +6117,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6135,7 +6146,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6164,7 +6175,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6193,7 +6204,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6222,7 +6233,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6251,7 +6262,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6280,7 +6291,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6309,7 +6320,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6338,7 +6349,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6367,7 +6378,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6396,7 +6407,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6425,7 +6436,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6454,7 +6465,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6483,7 +6494,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6512,7 +6523,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6541,7 +6552,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6570,7 +6581,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6599,7 +6610,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6628,7 +6639,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6657,7 +6668,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6686,7 +6697,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6715,7 +6726,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6744,7 +6755,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6773,7 +6784,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6802,7 +6813,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6831,7 +6842,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6860,7 +6871,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6889,7 +6900,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6918,7 +6929,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6947,7 +6958,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6976,7 +6987,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7005,7 +7016,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7034,7 +7045,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7063,7 +7074,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7092,7 +7103,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7121,7 +7132,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7150,7 +7161,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7179,7 +7190,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7208,7 +7219,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7237,7 +7248,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7266,7 +7277,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7295,7 +7306,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7324,7 +7335,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7353,7 +7364,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7382,7 +7393,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7411,7 +7422,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7440,7 +7451,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7469,7 +7480,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7498,7 +7509,36 @@
         <v>561</v>
       </c>
     </row>
-    <row r="899" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C153" s="2">
+        <v>42685</v>
+      </c>
+      <c r="D153" t="s">
+        <v>584</v>
+      </c>
+      <c r="E153" t="s">
+        <v>585</v>
+      </c>
+      <c r="F153" s="3">
+        <v>796</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="J153" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="899" spans="7:7">
       <c r="G899" s="1">
         <v>2</v>
       </c>

--- a/采购单规范v0.2/发票-凭证表.xlsx
+++ b/采购单规范v0.2/发票-凭证表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soda\Documents\GitHub\AboutMoney2017\采购单规范v0.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="4845" yWindow="-60" windowWidth="19395" windowHeight="7605"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="606">
   <si>
     <t>﻿序号</t>
   </si>
@@ -2811,12 +2816,80 @@
   <si>
     <t>北京国税</t>
   </si>
+  <si>
+    <t>12738117</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4403154320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>91440300360063363H</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3200154350</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-11-11 电轨组 赵杰 3000.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-10-7  电轨组 赵杰 100.58元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>09402016</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-10-10 电轨组 赵杰 80.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>445221198411194555</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4403161320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18918396</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>33032119670402781001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3021,7 +3094,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3053,9 +3126,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3087,6 +3161,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3262,14 +3337,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="H157" sqref="H157"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="H155" sqref="H155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
@@ -3279,7 +3354,7 @@
     <col min="8" max="8" width="22.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3305,7 +3380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3323,7 +3398,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3343,7 +3418,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3363,7 +3438,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3383,7 +3458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3400,7 +3475,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3420,7 +3495,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3440,7 +3515,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3457,7 +3532,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3474,7 +3549,7 @@
         <v>1081.5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3494,7 +3569,7 @@
         <v>349.6</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3521,7 +3596,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3548,7 +3623,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3575,7 +3650,7 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3602,7 +3677,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3629,7 +3704,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3656,7 +3731,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3683,7 +3758,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3710,7 +3785,7 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3737,7 +3812,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3764,7 +3839,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3791,7 +3866,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3818,7 +3893,7 @@
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3844,7 +3919,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3870,7 +3945,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3896,7 +3971,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3922,7 +3997,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3948,7 +4023,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3974,7 +4049,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4000,7 +4075,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4026,7 +4101,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4052,7 +4127,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4078,7 +4153,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4104,7 +4179,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4130,7 +4205,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4156,7 +4231,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4182,7 +4257,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4208,7 +4283,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4234,7 +4309,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4260,7 +4335,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4286,7 +4361,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4312,7 +4387,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4338,7 +4413,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4361,7 +4436,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4387,7 +4462,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4413,7 +4488,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4446,7 +4521,7 @@
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4477,7 +4552,7 @@
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4510,7 +4585,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4541,7 +4616,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4575,7 +4650,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4609,7 +4684,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4638,7 +4713,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4667,7 +4742,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4696,7 +4771,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4725,7 +4800,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4754,7 +4829,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4783,7 +4858,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4812,7 +4887,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4841,7 +4916,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4870,7 +4945,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4899,7 +4974,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4928,7 +5003,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4957,7 +5032,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4986,7 +5061,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5015,7 +5090,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5044,7 +5119,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5073,7 +5148,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5102,7 +5177,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5131,7 +5206,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5160,7 +5235,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5189,7 +5264,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5218,7 +5293,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5247,7 +5322,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5276,7 +5351,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5305,7 +5380,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5334,7 +5409,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5363,7 +5438,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5395,7 +5470,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5424,7 +5499,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5453,7 +5528,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5482,7 +5557,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5511,7 +5586,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5540,7 +5615,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5569,7 +5644,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5598,7 +5673,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5627,7 +5702,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5656,7 +5731,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5685,7 +5760,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5714,7 +5789,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5743,7 +5818,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5772,7 +5847,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5801,7 +5876,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5827,7 +5902,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5856,7 +5931,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5885,7 +5960,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5914,7 +5989,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5943,7 +6018,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5972,7 +6047,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6001,7 +6076,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6030,7 +6105,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6059,7 +6134,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6088,7 +6163,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6117,7 +6192,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6146,7 +6221,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6175,7 +6250,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6204,7 +6279,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6233,7 +6308,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6262,7 +6337,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6291,7 +6366,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6320,7 +6395,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6349,7 +6424,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6378,7 +6453,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6407,7 +6482,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6436,7 +6511,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6465,7 +6540,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6494,7 +6569,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6523,7 +6598,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6552,7 +6627,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6581,7 +6656,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6610,7 +6685,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6639,7 +6714,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6668,7 +6743,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6697,7 +6772,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6726,7 +6801,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6755,7 +6830,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6784,7 +6859,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6813,7 +6888,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6842,7 +6917,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6871,7 +6946,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6900,7 +6975,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6929,7 +7004,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6958,7 +7033,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6987,7 +7062,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7016,7 +7091,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7045,7 +7120,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7074,7 +7149,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7103,7 +7178,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7132,7 +7207,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7161,7 +7236,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7190,7 +7265,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7219,7 +7294,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7248,7 +7323,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7277,7 +7352,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7306,7 +7381,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7335,7 +7410,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7364,7 +7439,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7393,7 +7468,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7422,7 +7497,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7451,7 +7526,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7480,7 +7555,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7509,7 +7584,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7538,7 +7613,94 @@
         <v>588</v>
       </c>
     </row>
-    <row r="899" spans="7:7">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C154" s="2">
+        <v>42650</v>
+      </c>
+      <c r="D154" t="s">
+        <v>590</v>
+      </c>
+      <c r="E154" t="s">
+        <v>597</v>
+      </c>
+      <c r="F154" s="3">
+        <v>100.58</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="J154" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C155" s="2">
+        <v>42685</v>
+      </c>
+      <c r="D155" t="s">
+        <v>594</v>
+      </c>
+      <c r="E155" t="s">
+        <v>596</v>
+      </c>
+      <c r="F155" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="J155" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C156" s="2">
+        <v>42653</v>
+      </c>
+      <c r="D156" t="s">
+        <v>590</v>
+      </c>
+      <c r="E156" t="s">
+        <v>600</v>
+      </c>
+      <c r="F156" s="3">
+        <v>80</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="J156" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="899" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G899" s="1">
         <v>2</v>
       </c>

--- a/采购单规范v0.2/发票-凭证表.xlsx
+++ b/采购单规范v0.2/发票-凭证表.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soda\Documents\GitHub\AboutMoney2017\采购单规范v0.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="4845" yWindow="-60" windowWidth="19395" windowHeight="7605"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="626">
   <si>
     <t>﻿序号</t>
   </si>
@@ -2884,12 +2879,72 @@
     <t>33032119670402781001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>08771268</t>
+  </si>
+  <si>
+    <t>2016-11-14 电磁组 杨秉文 102.00元</t>
+  </si>
+  <si>
+    <t>4403161320</t>
+  </si>
+  <si>
+    <t>440300357904862</t>
+  </si>
+  <si>
+    <t>深圳国税</t>
+  </si>
+  <si>
+    <t>43434583</t>
+  </si>
+  <si>
+    <t>2016-11-09 电磁组 杨秉文 400.00元 1'</t>
+  </si>
+  <si>
+    <t>4400162320</t>
+  </si>
+  <si>
+    <t>36213119670605111901</t>
+  </si>
+  <si>
+    <t>广东国税</t>
+  </si>
+  <si>
+    <t>43434579</t>
+  </si>
+  <si>
+    <t>2016-11-09 电磁组 杨秉文 400.00元 2'</t>
+  </si>
+  <si>
+    <t>00811997</t>
+  </si>
+  <si>
+    <t>2016-11-09 电磁组 杨秉文 400.00元 3'</t>
+  </si>
+  <si>
+    <t>144001601320</t>
+  </si>
+  <si>
+    <t>43232219690720623901</t>
+  </si>
+  <si>
+    <t>00812000</t>
+  </si>
+  <si>
+    <t>2016-11-09 电磁组 杨秉文 400.00元 4'</t>
+  </si>
+  <si>
+    <t>00812003</t>
+  </si>
+  <si>
+    <t>2016-11-09 电磁组 杨秉文 400.00元 5'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3094,7 +3149,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3126,10 +3181,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3161,7 +3215,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3337,14 +3390,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L899"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="H155" sqref="H155"/>
+      <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
@@ -3354,7 +3407,7 @@
     <col min="8" max="8" width="22.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3380,7 +3433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3398,7 +3451,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3418,7 +3471,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3438,7 +3491,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3458,7 +3511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3475,7 +3528,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3495,7 +3548,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3515,7 +3568,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3532,7 +3585,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3549,7 +3602,7 @@
         <v>1081.5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3569,7 +3622,7 @@
         <v>349.6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3596,7 +3649,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3623,7 +3676,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3650,7 +3703,7 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3677,7 +3730,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3704,7 +3757,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3731,7 +3784,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3758,7 +3811,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3785,7 +3838,7 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3812,7 +3865,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3839,7 +3892,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3866,7 +3919,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3893,7 +3946,7 @@
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3919,7 +3972,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3945,7 +3998,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3971,7 +4024,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3997,7 +4050,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4023,7 +4076,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4049,7 +4102,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4075,7 +4128,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4101,7 +4154,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4127,7 +4180,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4153,7 +4206,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4179,7 +4232,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4205,7 +4258,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4231,7 +4284,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4257,7 +4310,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4283,7 +4336,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4309,7 +4362,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4335,7 +4388,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4361,7 +4414,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4387,7 +4440,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4413,7 +4466,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4436,7 +4489,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4462,7 +4515,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4488,7 +4541,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4521,7 +4574,7 @@
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4552,7 +4605,7 @@
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4585,7 +4638,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4616,7 +4669,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4650,7 +4703,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4684,7 +4737,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4713,7 +4766,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4742,7 +4795,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4771,7 +4824,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4800,7 +4853,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4829,7 +4882,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4858,7 +4911,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4887,7 +4940,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4916,7 +4969,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4945,7 +4998,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4974,7 +5027,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5003,7 +5056,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5032,7 +5085,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5061,7 +5114,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5090,7 +5143,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5119,7 +5172,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5148,7 +5201,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5177,7 +5230,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5206,7 +5259,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5235,7 +5288,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5264,7 +5317,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5293,7 +5346,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5322,7 +5375,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5351,7 +5404,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5380,7 +5433,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5409,7 +5462,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5438,7 +5491,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5470,7 +5523,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5499,7 +5552,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5528,7 +5581,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5557,7 +5610,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5586,7 +5639,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5615,7 +5668,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5644,7 +5697,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5673,7 +5726,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5702,7 +5755,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5731,7 +5784,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5760,7 +5813,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5789,7 +5842,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5818,7 +5871,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5847,7 +5900,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5876,7 +5929,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5902,7 +5955,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5931,7 +5984,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5960,7 +6013,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5989,7 +6042,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6018,7 +6071,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6047,7 +6100,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6076,7 +6129,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6105,7 +6158,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6134,7 +6187,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6163,7 +6216,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6192,7 +6245,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6221,7 +6274,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6250,7 +6303,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6279,7 +6332,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6308,7 +6361,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6337,7 +6390,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6366,7 +6419,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6395,7 +6448,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6424,7 +6477,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6453,7 +6506,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6482,7 +6535,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6511,7 +6564,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6540,7 +6593,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6569,7 +6622,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6598,7 +6651,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6627,7 +6680,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6656,7 +6709,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6685,7 +6738,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6714,7 +6767,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6743,7 +6796,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6772,7 +6825,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6801,7 +6854,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6830,7 +6883,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6859,7 +6912,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6888,7 +6941,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6917,7 +6970,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6946,7 +6999,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6975,7 +7028,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7004,7 +7057,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7033,7 +7086,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:10">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7062,7 +7115,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:10">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7091,7 +7144,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:10">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7120,7 +7173,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7149,7 +7202,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7178,7 +7231,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:10">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7207,7 +7260,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7236,7 +7289,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7265,7 +7318,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7294,7 +7347,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7323,7 +7376,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7352,7 +7405,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:10">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7381,7 +7434,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:10">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7410,7 +7463,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:10">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7439,7 +7492,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:10">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7468,7 +7521,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:10">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7497,7 +7550,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:10">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7526,7 +7579,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:10">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7555,7 +7608,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:10">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7584,7 +7637,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:10">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7613,7 +7666,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:10">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7642,7 +7695,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:10">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7671,7 +7724,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:10">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7700,7 +7753,181 @@
         <v>602</v>
       </c>
     </row>
-    <row r="899" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:10">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C157" s="2">
+        <v>42688</v>
+      </c>
+      <c r="D157" t="s">
+        <v>584</v>
+      </c>
+      <c r="E157" t="s">
+        <v>607</v>
+      </c>
+      <c r="F157" s="3">
+        <v>102</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="J157" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C158" s="2">
+        <v>42683</v>
+      </c>
+      <c r="D158" t="s">
+        <v>584</v>
+      </c>
+      <c r="E158" t="s">
+        <v>612</v>
+      </c>
+      <c r="F158" s="3">
+        <v>400</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="J158" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C159" s="2">
+        <v>42683</v>
+      </c>
+      <c r="D159" t="s">
+        <v>584</v>
+      </c>
+      <c r="E159" t="s">
+        <v>617</v>
+      </c>
+      <c r="F159" s="3">
+        <v>400</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="J159" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C160" s="2">
+        <v>42683</v>
+      </c>
+      <c r="D160" t="s">
+        <v>584</v>
+      </c>
+      <c r="E160" t="s">
+        <v>619</v>
+      </c>
+      <c r="F160" s="3">
+        <v>400</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="J160" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C161" s="2">
+        <v>42683</v>
+      </c>
+      <c r="D161" t="s">
+        <v>584</v>
+      </c>
+      <c r="E161" t="s">
+        <v>623</v>
+      </c>
+      <c r="F161" s="3">
+        <v>400</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="J161" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C162" s="2">
+        <v>42683</v>
+      </c>
+      <c r="D162" t="s">
+        <v>584</v>
+      </c>
+      <c r="E162" t="s">
+        <v>625</v>
+      </c>
+      <c r="F162" s="3">
+        <v>400</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="J162" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="899" spans="7:7">
       <c r="G899" s="1">
         <v>2</v>
       </c>

--- a/采购单规范v0.2/发票-凭证表.xlsx
+++ b/采购单规范v0.2/发票-凭证表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop Documents\TU_smart\AboutMoney2017\采购单规范v0.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="4845" yWindow="-60" windowWidth="19395" windowHeight="7605"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="632">
   <si>
     <t>﻿序号</t>
   </si>
@@ -2939,12 +2944,36 @@
   <si>
     <t>2016-11-09 电磁组 杨秉文 400.00元 5'</t>
   </si>
+  <si>
+    <t>19836219</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-11-11 信标组 孟硕 3000.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100162320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>110117339672295</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3149,7 +3178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3181,9 +3210,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3215,6 +3245,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3390,14 +3421,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="E164" sqref="E164"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="J163" sqref="J163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
@@ -3407,7 +3438,7 @@
     <col min="8" max="8" width="22.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3433,7 +3464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3451,7 +3482,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3471,7 +3502,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3491,7 +3522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3511,7 +3542,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3528,7 +3559,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3548,7 +3579,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3568,7 +3599,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3585,7 +3616,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3602,7 +3633,7 @@
         <v>1081.5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3622,7 +3653,7 @@
         <v>349.6</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3649,7 +3680,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3676,7 +3707,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3703,7 +3734,7 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3730,7 +3761,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3757,7 +3788,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3784,7 +3815,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3811,7 +3842,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3838,7 +3869,7 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3865,7 +3896,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3892,7 +3923,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3919,7 +3950,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3946,7 +3977,7 @@
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3972,7 +4003,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3998,7 +4029,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4024,7 +4055,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4050,7 +4081,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4076,7 +4107,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4102,7 +4133,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4128,7 +4159,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4154,7 +4185,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4180,7 +4211,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4206,7 +4237,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4232,7 +4263,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4258,7 +4289,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4284,7 +4315,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4310,7 +4341,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4336,7 +4367,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4362,7 +4393,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4388,7 +4419,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4414,7 +4445,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4440,7 +4471,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4466,7 +4497,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4489,7 +4520,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4515,7 +4546,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4541,7 +4572,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4574,7 +4605,7 @@
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4605,7 +4636,7 @@
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4638,7 +4669,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4669,7 +4700,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4703,7 +4734,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4737,7 +4768,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4766,7 +4797,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4795,7 +4826,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4824,7 +4855,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4853,7 +4884,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4882,7 +4913,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4911,7 +4942,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4940,7 +4971,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4969,7 +5000,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4998,7 +5029,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5027,7 +5058,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5056,7 +5087,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5085,7 +5116,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5114,7 +5145,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5143,7 +5174,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5172,7 +5203,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5201,7 +5232,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5230,7 +5261,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5259,7 +5290,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5288,7 +5319,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5317,7 +5348,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5346,7 +5377,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5375,7 +5406,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5404,7 +5435,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5433,7 +5464,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5462,7 +5493,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5491,7 +5522,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5523,7 +5554,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5552,7 +5583,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5581,7 +5612,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5610,7 +5641,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5639,7 +5670,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5668,7 +5699,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5697,7 +5728,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5726,7 +5757,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5755,7 +5786,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5784,7 +5815,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5813,7 +5844,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5842,7 +5873,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5871,7 +5902,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5900,7 +5931,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5929,7 +5960,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5955,7 +5986,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5984,7 +6015,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6013,7 +6044,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6042,7 +6073,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6071,7 +6102,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6100,7 +6131,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6129,7 +6160,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6158,7 +6189,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6187,7 +6218,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6216,7 +6247,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6245,7 +6276,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6274,7 +6305,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6303,7 +6334,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6332,7 +6363,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6361,7 +6392,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6390,7 +6421,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6419,7 +6450,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6448,7 +6479,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6477,7 +6508,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6506,7 +6537,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6535,7 +6566,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6564,7 +6595,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6593,7 +6624,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6622,7 +6653,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6651,7 +6682,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6680,7 +6711,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6709,7 +6740,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6738,7 +6769,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6767,7 +6798,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6796,7 +6827,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6825,7 +6856,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6854,7 +6885,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6883,7 +6914,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6912,7 +6943,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6941,7 +6972,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6970,7 +7001,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6999,7 +7030,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7028,7 +7059,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7057,7 +7088,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7086,7 +7117,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7115,7 +7146,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7144,7 +7175,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7173,7 +7204,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7202,7 +7233,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7231,7 +7262,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7260,7 +7291,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7289,7 +7320,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7318,7 +7349,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7347,7 +7378,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7376,7 +7407,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7405,7 +7436,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7434,7 +7465,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7463,7 +7494,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7492,7 +7523,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7521,7 +7552,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7550,7 +7581,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7579,7 +7610,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7608,7 +7639,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7637,7 +7668,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7666,7 +7697,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7695,7 +7726,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7724,7 +7755,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7753,7 +7784,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7782,7 +7813,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7811,7 +7842,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7840,7 +7871,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7869,7 +7900,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7898,7 +7929,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7927,7 +7958,36 @@
         <v>615</v>
       </c>
     </row>
-    <row r="899" spans="7:7">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C163" s="2">
+        <v>42685</v>
+      </c>
+      <c r="D163" t="s">
+        <v>627</v>
+      </c>
+      <c r="E163" t="s">
+        <v>628</v>
+      </c>
+      <c r="F163" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="J163" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="899" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G899" s="1">
         <v>2</v>
       </c>

--- a/采购单规范v0.2/发票-凭证表.xlsx
+++ b/采购单规范v0.2/发票-凭证表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="645">
   <si>
     <t>﻿序号</t>
   </si>
@@ -2966,6 +2966,57 @@
   </si>
   <si>
     <t>北京国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>34574111</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-11-20 信标组 孟硕 370.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4400163320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>440104304665677</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01117585</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-11-22 信标组 孟硕 94.21元</t>
+  </si>
+  <si>
+    <t>3302162320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>91330201MA281EE51M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01117586</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波国税</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3424,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="J163" sqref="J163"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="J166" sqref="J166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7985,6 +8036,93 @@
       </c>
       <c r="J163" t="s">
         <v>631</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C164" s="2">
+        <v>42694</v>
+      </c>
+      <c r="D164" t="s">
+        <v>633</v>
+      </c>
+      <c r="E164" t="s">
+        <v>634</v>
+      </c>
+      <c r="F164" s="3">
+        <v>370</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="J164" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C165" s="2">
+        <v>42697</v>
+      </c>
+      <c r="D165" t="s">
+        <v>633</v>
+      </c>
+      <c r="E165" t="s">
+        <v>639</v>
+      </c>
+      <c r="F165" s="3">
+        <v>74.709999999999994</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="J165" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C166" s="2">
+        <v>42697</v>
+      </c>
+      <c r="D166" t="s">
+        <v>633</v>
+      </c>
+      <c r="E166" t="s">
+        <v>639</v>
+      </c>
+      <c r="F166" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="J166" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="899" spans="7:7" x14ac:dyDescent="0.15">

--- a/采购单规范v0.2/发票-凭证表.xlsx
+++ b/采购单规范v0.2/发票-凭证表.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop Documents\TU_smart\AboutMoney2017\采购单规范v0.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="-60" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="4848" yWindow="-60" windowWidth="19392" windowHeight="7608"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="651">
   <si>
     <t>﻿序号</t>
   </si>
@@ -3017,6 +3012,30 @@
   </si>
   <si>
     <t>宁波国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张兆显</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-11-15 光电组 张兆显 3000.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>110117339672295</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19836224</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100162320</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3187,7 +3206,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3229,7 +3248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3264,7 +3283,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3475,21 +3494,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="J166" sqref="J166"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="35.625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3515,7 +3534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3533,7 +3552,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3553,7 +3572,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3573,7 +3592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3593,7 +3612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3610,7 +3629,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3630,7 +3649,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3650,7 +3669,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3667,7 +3686,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3684,7 +3703,7 @@
         <v>1081.5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3704,7 +3723,7 @@
         <v>349.6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3731,7 +3750,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3758,7 +3777,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3785,7 +3804,7 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3812,7 +3831,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3839,7 +3858,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3866,7 +3885,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3893,7 +3912,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3920,7 +3939,7 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3947,7 +3966,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3974,7 +3993,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4001,7 +4020,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4028,7 +4047,7 @@
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4054,7 +4073,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4080,7 +4099,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4106,7 +4125,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4132,7 +4151,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4158,7 +4177,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4184,7 +4203,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4210,7 +4229,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4236,7 +4255,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4262,7 +4281,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4288,7 +4307,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4314,7 +4333,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4340,7 +4359,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4366,7 +4385,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4392,7 +4411,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4418,7 +4437,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4444,7 +4463,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4470,7 +4489,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4496,7 +4515,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4522,7 +4541,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4548,7 +4567,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4571,7 +4590,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4597,7 +4616,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4623,7 +4642,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4656,7 +4675,7 @@
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4687,7 +4706,7 @@
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4720,7 +4739,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4751,7 +4770,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4785,7 +4804,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4819,7 +4838,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4848,7 +4867,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4877,7 +4896,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4906,7 +4925,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4935,7 +4954,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4964,7 +4983,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4993,7 +5012,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5022,7 +5041,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5051,7 +5070,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5080,7 +5099,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5109,7 +5128,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5138,7 +5157,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5167,7 +5186,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5196,7 +5215,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5225,7 +5244,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5254,7 +5273,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5283,7 +5302,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5312,7 +5331,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5341,7 +5360,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5370,7 +5389,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5399,7 +5418,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5428,7 +5447,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5457,7 +5476,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5486,7 +5505,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5515,7 +5534,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5544,7 +5563,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5573,7 +5592,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5605,7 +5624,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5634,7 +5653,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5663,7 +5682,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5692,7 +5711,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5721,7 +5740,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5750,7 +5769,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5779,7 +5798,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5808,7 +5827,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5837,7 +5856,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5866,7 +5885,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5895,7 +5914,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5924,7 +5943,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5953,7 +5972,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5982,7 +6001,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6011,7 +6030,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6037,7 +6056,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6066,7 +6085,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6095,7 +6114,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6124,7 +6143,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6153,7 +6172,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6182,7 +6201,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6211,7 +6230,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6240,7 +6259,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6269,7 +6288,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6298,7 +6317,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6327,7 +6346,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6356,7 +6375,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6385,7 +6404,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6414,7 +6433,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6443,7 +6462,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6472,7 +6491,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6501,7 +6520,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6530,7 +6549,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6559,7 +6578,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6588,7 +6607,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6617,7 +6636,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6646,7 +6665,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6675,7 +6694,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6704,7 +6723,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6733,7 +6752,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6762,7 +6781,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6791,7 +6810,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6820,7 +6839,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6849,7 +6868,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6878,7 +6897,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6907,7 +6926,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6936,7 +6955,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6965,7 +6984,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6994,7 +7013,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7023,7 +7042,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7052,7 +7071,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7081,7 +7100,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7110,7 +7129,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7139,7 +7158,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7168,7 +7187,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7197,7 +7216,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7226,7 +7245,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7255,7 +7274,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7284,7 +7303,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7313,7 +7332,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7342,7 +7361,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7371,7 +7390,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7400,7 +7419,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7429,7 +7448,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7458,7 +7477,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7487,7 +7506,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7516,7 +7535,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7545,7 +7564,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7574,7 +7593,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7603,7 +7622,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7632,7 +7651,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7661,7 +7680,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7690,7 +7709,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7719,7 +7738,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7748,7 +7767,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7777,7 +7796,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7806,7 +7825,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7835,7 +7854,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7864,7 +7883,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7893,7 +7912,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7922,7 +7941,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7951,7 +7970,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7980,7 +7999,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8009,7 +8028,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8038,7 +8057,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8067,7 +8086,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8096,7 +8115,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8125,7 +8144,36 @@
         <v>644</v>
       </c>
     </row>
-    <row r="899" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C167" s="2">
+        <v>42689</v>
+      </c>
+      <c r="D167" t="s">
+        <v>645</v>
+      </c>
+      <c r="E167" t="s">
+        <v>646</v>
+      </c>
+      <c r="F167" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="J167" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="899" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G899" s="1">
         <v>2</v>
       </c>

--- a/采购单规范v0.2/发票-凭证表.xlsx
+++ b/采购单规范v0.2/发票-凭证表.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop Documents\TU_smart\AboutMoney2017\采购单规范v0.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4848" yWindow="-60" windowWidth="19392" windowHeight="7608"/>
+    <workbookView xWindow="4845" yWindow="-60" windowWidth="19395" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="674">
   <si>
     <t>﻿序号</t>
   </si>
@@ -3036,6 +3041,92 @@
   </si>
   <si>
     <t>1100162320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>07320808</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-11-22 信标组 孟硕 100.00元</t>
+  </si>
+  <si>
+    <t>4300164320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>43051119671001102401</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-01 信标组 孟硕 534.00元</t>
+  </si>
+  <si>
+    <t>12349462</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3200154320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>320400086983959</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏国税</t>
+  </si>
+  <si>
+    <t>2016-12-05 信标组 孟硕 315.88元</t>
+  </si>
+  <si>
+    <t>13136266</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3400163320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>91340200MA2N4CNA44</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13326177</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-13 光电四轮组 孟硕 525.87元</t>
+  </si>
+  <si>
+    <t>2016-12-17 光电四轮组 孟硕 169.49元</t>
+  </si>
+  <si>
+    <t>02376319</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>144031601133</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>440300088416421</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3206,7 +3297,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3248,7 +3339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3283,7 +3374,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3494,21 +3585,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L899"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G167" sqref="G167"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="35.625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3534,7 +3625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3552,7 +3643,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3572,7 +3663,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3592,7 +3683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3612,7 +3703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3629,7 +3720,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3649,7 +3740,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3669,7 +3760,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3686,7 +3777,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3703,7 +3794,7 @@
         <v>1081.5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3723,7 +3814,7 @@
         <v>349.6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3750,7 +3841,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3777,7 +3868,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3804,7 +3895,7 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3831,7 +3922,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3858,7 +3949,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3885,7 +3976,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3912,7 +4003,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3939,7 +4030,7 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3966,7 +4057,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3993,7 +4084,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4020,7 +4111,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4047,7 +4138,7 @@
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4073,7 +4164,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4099,7 +4190,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4125,7 +4216,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4151,7 +4242,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4177,7 +4268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4203,7 +4294,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4229,7 +4320,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4255,7 +4346,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4281,7 +4372,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4307,7 +4398,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4333,7 +4424,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4359,7 +4450,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4385,7 +4476,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4411,7 +4502,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4437,7 +4528,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4463,7 +4554,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4489,7 +4580,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4515,7 +4606,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4541,7 +4632,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4567,7 +4658,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4590,7 +4681,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4616,7 +4707,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4642,7 +4733,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4675,7 +4766,7 @@
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4706,7 +4797,7 @@
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4739,7 +4830,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4770,7 +4861,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4804,7 +4895,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4838,7 +4929,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4867,7 +4958,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4896,7 +4987,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4925,7 +5016,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4954,7 +5045,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4983,7 +5074,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5012,7 +5103,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5041,7 +5132,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5070,7 +5161,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5099,7 +5190,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5128,7 +5219,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5157,7 +5248,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5186,7 +5277,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5215,7 +5306,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5244,7 +5335,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5273,7 +5364,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5302,7 +5393,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5331,7 +5422,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5360,7 +5451,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5389,7 +5480,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5418,7 +5509,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5447,7 +5538,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5476,7 +5567,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5505,7 +5596,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5534,7 +5625,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5563,7 +5654,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5592,7 +5683,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5624,7 +5715,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5653,7 +5744,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5682,7 +5773,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5711,7 +5802,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5740,7 +5831,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5769,7 +5860,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5798,7 +5889,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5827,7 +5918,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5856,7 +5947,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5885,7 +5976,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5914,7 +6005,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5943,7 +6034,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5972,7 +6063,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6001,7 +6092,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6030,7 +6121,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6056,7 +6147,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6085,7 +6176,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6114,7 +6205,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6143,7 +6234,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6172,7 +6263,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6201,7 +6292,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6230,7 +6321,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6259,7 +6350,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6288,7 +6379,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6317,7 +6408,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6346,7 +6437,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6375,7 +6466,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6404,7 +6495,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6433,7 +6524,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6462,7 +6553,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6491,7 +6582,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6520,7 +6611,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6549,7 +6640,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6578,7 +6669,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6607,7 +6698,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6636,7 +6727,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6665,7 +6756,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6694,7 +6785,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6723,7 +6814,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6752,7 +6843,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6781,7 +6872,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6810,7 +6901,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6839,7 +6930,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6868,7 +6959,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6897,7 +6988,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6926,7 +7017,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6955,7 +7046,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6984,7 +7075,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7013,7 +7104,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7042,7 +7133,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7071,7 +7162,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7100,7 +7191,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7129,7 +7220,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7158,7 +7249,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7187,7 +7278,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7216,7 +7307,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7245,7 +7336,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7274,7 +7365,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7303,7 +7394,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7332,7 +7423,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7361,7 +7452,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7390,7 +7481,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7419,7 +7510,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7448,7 +7539,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7477,7 +7568,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7506,7 +7597,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7535,7 +7626,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7564,7 +7655,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7593,7 +7684,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7622,7 +7713,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7651,7 +7742,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7680,7 +7771,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7709,7 +7800,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7738,7 +7829,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7767,7 +7858,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7796,7 +7887,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7825,7 +7916,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7854,7 +7945,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7883,7 +7974,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7912,7 +8003,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7941,7 +8032,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7970,7 +8061,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7999,7 +8090,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8028,7 +8119,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8057,7 +8148,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8086,7 +8177,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8115,7 +8206,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8144,7 +8235,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8173,7 +8264,152 @@
         <v>648</v>
       </c>
     </row>
-    <row r="899" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C168" s="2">
+        <v>42707</v>
+      </c>
+      <c r="D168" t="s">
+        <v>652</v>
+      </c>
+      <c r="E168" t="s">
+        <v>653</v>
+      </c>
+      <c r="F168" s="3">
+        <v>100</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="J168" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C169" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D169" t="s">
+        <v>659</v>
+      </c>
+      <c r="E169" t="s">
+        <v>657</v>
+      </c>
+      <c r="F169" s="3">
+        <v>534</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="J169" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C170" s="2">
+        <v>42713</v>
+      </c>
+      <c r="D170" t="s">
+        <v>652</v>
+      </c>
+      <c r="E170" t="s">
+        <v>663</v>
+      </c>
+      <c r="F170" s="3">
+        <v>315.88</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="J170" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C171" s="2">
+        <v>42718</v>
+      </c>
+      <c r="D171" t="s">
+        <v>652</v>
+      </c>
+      <c r="E171" t="s">
+        <v>669</v>
+      </c>
+      <c r="F171" s="3">
+        <v>525.87</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="J171" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C172" s="2">
+        <v>42721</v>
+      </c>
+      <c r="D172" t="s">
+        <v>652</v>
+      </c>
+      <c r="E172" t="s">
+        <v>670</v>
+      </c>
+      <c r="F172" s="3">
+        <v>169.49</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="J172" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="899" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G899" s="1">
         <v>2</v>
       </c>

--- a/采购单规范v0.2/发票-凭证表.xlsx
+++ b/采购单规范v0.2/发票-凭证表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop Documents\TU_smart\AboutMoney2017\采购单规范v0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soda\Documents\GitHub\AboutMoney2017\采购单规范v0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="718">
   <si>
     <t>﻿序号</t>
   </si>
@@ -3128,6 +3128,138 @@
   <si>
     <t>440300088416421</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>07201401</t>
+  </si>
+  <si>
+    <t>赵杰</t>
+  </si>
+  <si>
+    <t>2016-12-22 电轨组 赵杰 42.50元</t>
+  </si>
+  <si>
+    <t>4403162320</t>
+  </si>
+  <si>
+    <t>440300051512778</t>
+  </si>
+  <si>
+    <t>02326343</t>
+  </si>
+  <si>
+    <t>2016-12-20 电轨组 赵杰 168.00元</t>
+  </si>
+  <si>
+    <t>144031601133</t>
+  </si>
+  <si>
+    <t>440300319608448</t>
+  </si>
+  <si>
+    <t>广东深圳国税</t>
+  </si>
+  <si>
+    <t>02286666</t>
+  </si>
+  <si>
+    <t>2016-12-20 电轨组 赵杰 27.40元</t>
+  </si>
+  <si>
+    <t>440300311726116</t>
+  </si>
+  <si>
+    <t>03111018</t>
+  </si>
+  <si>
+    <t>2016-12-20 电轨组 赵杰 120.00元</t>
+  </si>
+  <si>
+    <t>2100161350</t>
+  </si>
+  <si>
+    <t>91210700791576777L</t>
+  </si>
+  <si>
+    <t>辽宁国税</t>
+  </si>
+  <si>
+    <t>57422690</t>
+  </si>
+  <si>
+    <t>2016-12-18 电轨组 赵杰 100.00元</t>
+  </si>
+  <si>
+    <t>4400163320</t>
+  </si>
+  <si>
+    <t>33038219890706143901</t>
+  </si>
+  <si>
+    <t>22541065</t>
+  </si>
+  <si>
+    <t>2016-12-09 电轨组 赵杰 54.88元</t>
+  </si>
+  <si>
+    <t>3600162320</t>
+  </si>
+  <si>
+    <t>91360805MA35JJ1RXB</t>
+  </si>
+  <si>
+    <t>江西国税</t>
+  </si>
+  <si>
+    <t>00885933</t>
+  </si>
+  <si>
+    <t>2016-12-08 电轨组 赵杰 130.00元</t>
+  </si>
+  <si>
+    <t>17020357</t>
+  </si>
+  <si>
+    <t>2016-12-05 电轨组 赵杰 120.00元</t>
+  </si>
+  <si>
+    <t>440300L82617313</t>
+  </si>
+  <si>
+    <t>12349557</t>
+  </si>
+  <si>
+    <t>2017-02-15 电轨组 赵杰 150.00元</t>
+  </si>
+  <si>
+    <t>3200154320</t>
+  </si>
+  <si>
+    <t>320400086983959</t>
+  </si>
+  <si>
+    <t>02326380</t>
+  </si>
+  <si>
+    <t>2017-02-17 电轨组 赵杰 456.00元</t>
+  </si>
+  <si>
+    <t>57435622</t>
+  </si>
+  <si>
+    <t>2017-02-08 电轨组 赵杰 390.00元</t>
+  </si>
+  <si>
+    <t>42010719470512102900</t>
+  </si>
+  <si>
+    <t>21676481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-20 电轨组 赵杰 70.00元 </t>
+  </si>
+  <si>
+    <t>440300306123695</t>
   </si>
 </sst>
 </file>
@@ -3585,8 +3717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="K174" sqref="K174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8407,6 +8539,354 @@
       </c>
       <c r="J172" t="s">
         <v>426</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C173" s="2">
+        <v>42727</v>
+      </c>
+      <c r="D173" t="s">
+        <v>675</v>
+      </c>
+      <c r="E173" t="s">
+        <v>676</v>
+      </c>
+      <c r="F173">
+        <v>42.5</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="J173" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C174" s="2">
+        <v>42724</v>
+      </c>
+      <c r="D174" t="s">
+        <v>675</v>
+      </c>
+      <c r="E174" t="s">
+        <v>680</v>
+      </c>
+      <c r="F174">
+        <v>168</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="J174" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C175" s="2">
+        <v>42724</v>
+      </c>
+      <c r="D175" t="s">
+        <v>675</v>
+      </c>
+      <c r="E175" t="s">
+        <v>685</v>
+      </c>
+      <c r="F175">
+        <v>27.4</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="J175" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C176" s="2">
+        <v>42725</v>
+      </c>
+      <c r="D176" t="s">
+        <v>675</v>
+      </c>
+      <c r="E176" t="s">
+        <v>688</v>
+      </c>
+      <c r="F176">
+        <v>120</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="J176" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C177" s="2">
+        <v>42730</v>
+      </c>
+      <c r="D177" t="s">
+        <v>675</v>
+      </c>
+      <c r="E177" t="s">
+        <v>693</v>
+      </c>
+      <c r="F177">
+        <v>100</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="J177" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C178" s="2">
+        <v>42713</v>
+      </c>
+      <c r="D178" t="s">
+        <v>675</v>
+      </c>
+      <c r="E178" t="s">
+        <v>697</v>
+      </c>
+      <c r="F178">
+        <v>54.88</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="J178" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C179" s="2">
+        <v>42713</v>
+      </c>
+      <c r="D179" t="s">
+        <v>675</v>
+      </c>
+      <c r="E179" t="s">
+        <v>702</v>
+      </c>
+      <c r="F179">
+        <v>130</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="J179" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C180" s="2">
+        <v>42717</v>
+      </c>
+      <c r="D180" t="s">
+        <v>675</v>
+      </c>
+      <c r="E180" t="s">
+        <v>704</v>
+      </c>
+      <c r="F180">
+        <v>120</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="J180" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C181" s="2">
+        <v>42781</v>
+      </c>
+      <c r="D181" t="s">
+        <v>675</v>
+      </c>
+      <c r="E181" t="s">
+        <v>707</v>
+      </c>
+      <c r="F181">
+        <v>150</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="J181" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C182" s="2">
+        <v>42783</v>
+      </c>
+      <c r="D182" t="s">
+        <v>675</v>
+      </c>
+      <c r="E182" t="s">
+        <v>711</v>
+      </c>
+      <c r="F182">
+        <v>456</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="J182" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C183" s="2">
+        <v>42781</v>
+      </c>
+      <c r="D183" t="s">
+        <v>675</v>
+      </c>
+      <c r="E183" t="s">
+        <v>713</v>
+      </c>
+      <c r="F183">
+        <v>390</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="J183" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C184" s="2">
+        <v>42787</v>
+      </c>
+      <c r="D184" t="s">
+        <v>675</v>
+      </c>
+      <c r="E184" t="s">
+        <v>716</v>
+      </c>
+      <c r="F184">
+        <v>70</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="J184" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="899" spans="7:7" x14ac:dyDescent="0.15">

--- a/采购单规范v0.2/发票-凭证表.xlsx
+++ b/采购单规范v0.2/发票-凭证表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soda\Documents\GitHub\AboutMoney2017\采购单规范v0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop Documents\TU_smart\AboutMoney2017\采购单规范v0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="743">
   <si>
     <t>﻿序号</t>
   </si>
@@ -3260,6 +3260,101 @@
   </si>
   <si>
     <t>440300306123695</t>
+  </si>
+  <si>
+    <t>02376461</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-24 光电四轮组 孟硕 40.70元</t>
+  </si>
+  <si>
+    <t>144031601133</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>440300088416421</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东深圳国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01667951</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-24 光电四轮组 孟硕 27.00元</t>
+  </si>
+  <si>
+    <t>144031601133</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>440300593002895</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01556430</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-24 光电四轮组 孟硕 105.00元</t>
+  </si>
+  <si>
+    <t>3400164320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19021042</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-12 光电四轮组 孟硕 196.00元</t>
+  </si>
+  <si>
+    <t>111001473051</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>91110108754674116M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19021043</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-12 光电四轮组 孟硕 740.00元</t>
+  </si>
+  <si>
+    <t>91110108754674116M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3717,8 +3812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="K174" sqref="K174"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="J189" sqref="J189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8887,6 +8982,151 @@
       </c>
       <c r="J184" t="s">
         <v>610</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C185" s="2">
+        <v>42728</v>
+      </c>
+      <c r="D185" t="s">
+        <v>719</v>
+      </c>
+      <c r="E185" t="s">
+        <v>720</v>
+      </c>
+      <c r="F185">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="J185" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C186" s="2">
+        <v>42728</v>
+      </c>
+      <c r="D186" t="s">
+        <v>725</v>
+      </c>
+      <c r="E186" t="s">
+        <v>726</v>
+      </c>
+      <c r="F186">
+        <v>27</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="J186" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C187" s="2">
+        <v>42728</v>
+      </c>
+      <c r="D187" t="s">
+        <v>719</v>
+      </c>
+      <c r="E187" t="s">
+        <v>730</v>
+      </c>
+      <c r="F187">
+        <v>105</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="J187" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C188" s="2">
+        <v>42778</v>
+      </c>
+      <c r="D188" t="s">
+        <v>725</v>
+      </c>
+      <c r="E188" t="s">
+        <v>734</v>
+      </c>
+      <c r="F188">
+        <v>196</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="J188" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C189" s="2">
+        <v>42778</v>
+      </c>
+      <c r="D189" t="s">
+        <v>739</v>
+      </c>
+      <c r="E189" t="s">
+        <v>740</v>
+      </c>
+      <c r="F189">
+        <v>740</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="J189" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="899" spans="7:7" x14ac:dyDescent="0.15">

--- a/采购单规范v0.2/发票-凭证表.xlsx
+++ b/采购单规范v0.2/发票-凭证表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop Documents\TU_smart\AboutMoney2017\采购单规范v0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Freescale\2017\行政\票据\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="754">
   <si>
     <t>﻿序号</t>
   </si>
@@ -3355,6 +3355,49 @@
   <si>
     <t>北京国税</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00858603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-25 电轨组 赵杰 275.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>144001601320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>36213719760926323501</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00858601</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-25 电轨组 赵杰 275.00元-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02326390</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-24 电轨组 赵杰 347.00元</t>
   </si>
 </sst>
 </file>
@@ -3812,8 +3855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="J189" sqref="J189"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="H195" sqref="H195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9127,6 +9170,93 @@
       </c>
       <c r="J189" t="s">
         <v>742</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C190" s="2">
+        <v>42793</v>
+      </c>
+      <c r="D190" t="s">
+        <v>744</v>
+      </c>
+      <c r="E190" t="s">
+        <v>745</v>
+      </c>
+      <c r="F190">
+        <v>275</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="J190" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C191" s="2">
+        <v>42793</v>
+      </c>
+      <c r="D191" t="s">
+        <v>744</v>
+      </c>
+      <c r="E191" t="s">
+        <v>750</v>
+      </c>
+      <c r="F191">
+        <v>275</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="J191" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C192" s="2">
+        <v>42791</v>
+      </c>
+      <c r="D192" t="s">
+        <v>752</v>
+      </c>
+      <c r="E192" t="s">
+        <v>753</v>
+      </c>
+      <c r="F192">
+        <v>375</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="J192" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="899" spans="7:7" x14ac:dyDescent="0.15">

--- a/采购单规范v0.2/发票-凭证表.xlsx
+++ b/采购单规范v0.2/发票-凭证表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Freescale\2017\行政\票据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\AboutMoney2017\采购单规范v0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="773">
   <si>
     <t>﻿序号</t>
   </si>
@@ -3399,11 +3399,80 @@
   <si>
     <t>2017-02-24 电轨组 赵杰 347.00元</t>
   </si>
+  <si>
+    <t>10977313</t>
+  </si>
+  <si>
+    <t>3200161350</t>
+  </si>
+  <si>
+    <t>91320412557096660Q</t>
+  </si>
+  <si>
+    <t>01166755</t>
+  </si>
+  <si>
+    <t>440300087022877</t>
+  </si>
+  <si>
+    <t>10977320</t>
+  </si>
+  <si>
+    <t>10413261</t>
+  </si>
+  <si>
+    <t>09543474</t>
+  </si>
+  <si>
+    <t>1100171320</t>
+  </si>
+  <si>
+    <t>420984197810012027</t>
+  </si>
+  <si>
+    <t>李秋键</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李秋键</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-03-09 国创 李秋键 143.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-03-11 国创 李秋键 143.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-03-12 国创 李秋键 66.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-03-12 国创 李秋键 59.50元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-03-11 国创 李秋键 680.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-04-28 创意组 李秋键 930.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3471,7 +3540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3506,6 +3575,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3567,7 +3639,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3855,8 +3927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="H195" sqref="H195"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="J198" sqref="J198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9258,6 +9330,230 @@
       <c r="J192" t="s">
         <v>683</v>
       </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C193" s="2">
+        <v>42803</v>
+      </c>
+      <c r="D193" t="s">
+        <v>764</v>
+      </c>
+      <c r="E193" t="s">
+        <v>766</v>
+      </c>
+      <c r="F193">
+        <v>143</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="J193" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C194" s="2">
+        <v>42805</v>
+      </c>
+      <c r="D194" t="s">
+        <v>765</v>
+      </c>
+      <c r="E194" t="s">
+        <v>767</v>
+      </c>
+      <c r="F194">
+        <v>143</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="J194" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C195" s="2">
+        <v>42807</v>
+      </c>
+      <c r="D195" t="s">
+        <v>764</v>
+      </c>
+      <c r="E195" t="s">
+        <v>770</v>
+      </c>
+      <c r="F195">
+        <v>680</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="J195" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C196" s="2">
+        <v>42806</v>
+      </c>
+      <c r="D196" t="s">
+        <v>765</v>
+      </c>
+      <c r="E196" t="s">
+        <v>768</v>
+      </c>
+      <c r="F196">
+        <v>66</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="J196" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C197" s="2">
+        <v>42806</v>
+      </c>
+      <c r="D197" t="s">
+        <v>764</v>
+      </c>
+      <c r="E197" t="s">
+        <v>769</v>
+      </c>
+      <c r="F197">
+        <v>59.5</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="J197" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="C198" s="2">
+        <v>42833</v>
+      </c>
+      <c r="D198" t="s">
+        <v>765</v>
+      </c>
+      <c r="E198" t="s">
+        <v>771</v>
+      </c>
+      <c r="F198">
+        <v>930</v>
+      </c>
+      <c r="J198" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C199" s="2"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C200" s="2"/>
+      <c r="E200" s="12"/>
+      <c r="I200" s="12"/>
+      <c r="J200" s="12"/>
+      <c r="K200" s="12"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C201" s="2"/>
+      <c r="E201" s="12"/>
+      <c r="I201" s="12"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="12"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="I202" s="12"/>
+      <c r="J202" s="12"/>
+      <c r="K202" s="12"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C203" s="2"/>
+      <c r="E203" s="12"/>
+      <c r="I203" s="12"/>
+      <c r="J203" s="12"/>
+      <c r="K203" s="12"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C204" s="2"/>
+      <c r="E204" s="12"/>
+      <c r="I204" s="12"/>
+      <c r="J204" s="12"/>
+      <c r="K204" s="12"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C205" s="2"/>
+      <c r="E205" s="12"/>
+      <c r="I205" s="12"/>
+      <c r="J205" s="12"/>
+      <c r="K205" s="12"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C206" s="2"/>
+      <c r="E206" s="12"/>
+      <c r="I206" s="12"/>
+      <c r="J206" s="12"/>
+      <c r="K206" s="12"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C207" s="2"/>
+      <c r="E207" s="12"/>
+      <c r="I207" s="12"/>
+      <c r="J207" s="12"/>
+      <c r="K207" s="12"/>
     </row>
     <row r="899" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G899" s="1">

--- a/采购单规范v0.2/发票-凭证表.xlsx
+++ b/采购单规范v0.2/发票-凭证表.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\AboutMoney2017\采购单规范v0.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="4845" yWindow="-60" windowWidth="19395" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="816">
   <si>
     <t>﻿序号</t>
   </si>
@@ -3465,15 +3460,165 @@
     <t>北京国税</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>13918229</t>
+  </si>
+  <si>
+    <t>44030400DK00395</t>
+  </si>
+  <si>
+    <t>57435373</t>
+  </si>
+  <si>
+    <t>42122219890912288101</t>
+  </si>
+  <si>
+    <t>04353036</t>
+  </si>
+  <si>
+    <t>3400171320</t>
+  </si>
+  <si>
+    <t>91340200MA2N4CNA44</t>
+  </si>
+  <si>
+    <t>安徽国税</t>
+  </si>
+  <si>
+    <t>01753434</t>
+  </si>
+  <si>
+    <t>3400164320</t>
+  </si>
+  <si>
+    <t>34020757441494X</t>
+  </si>
+  <si>
+    <t>20249730</t>
+  </si>
+  <si>
+    <t>110108102085877</t>
+  </si>
+  <si>
+    <t>12349525</t>
+  </si>
+  <si>
+    <t>10605696</t>
+  </si>
+  <si>
+    <t>3300163320</t>
+  </si>
+  <si>
+    <t>91330108341779219Y</t>
+  </si>
+  <si>
+    <t>浙江国税</t>
+  </si>
+  <si>
+    <t>18671913</t>
+  </si>
+  <si>
+    <t>4400164320</t>
+  </si>
+  <si>
+    <t>18671915</t>
+  </si>
+  <si>
+    <t>57478509</t>
+  </si>
+  <si>
+    <t>2017-01-05 电磁组 杨秉文 212.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-09 电磁组 杨秉文 508.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨秉文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-11-22 电磁组 杨秉文 79.30元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-09 电磁组 杨秉文 193.60元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-23 电磁组 杨秉文 212.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-23 电磁组 杨秉文 212.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-29 电磁组 杨秉文 100.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-03-24 电磁组 杨秉文 199.71元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-31 电磁组 杨秉文 207.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-03-06 电磁组 杨秉文 174.90元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>37930895</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100154320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>911101090741802511</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11603028</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100162320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>110109589115870</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-11 电磁组 杨秉文 595.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-23 电磁组 杨秉文 707.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3639,7 +3784,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3681,7 +3826,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3713,10 +3858,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3748,7 +3892,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3924,14 +4067,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L899"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L897"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="J198" sqref="J198"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="E213" sqref="E213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
@@ -3941,7 +4084,7 @@
     <col min="8" max="8" width="22.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3967,7 +4110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3985,7 +4128,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4005,7 +4148,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4025,7 +4168,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4045,7 +4188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4062,7 +4205,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4082,7 +4225,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4102,7 +4245,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4119,7 +4262,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4136,7 +4279,7 @@
         <v>1081.5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4156,7 +4299,7 @@
         <v>349.6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4183,7 +4326,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4210,7 +4353,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4237,7 +4380,7 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4264,7 +4407,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4291,7 +4434,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4318,7 +4461,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4345,7 +4488,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4372,7 +4515,7 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4399,7 +4542,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4426,7 +4569,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4453,7 +4596,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4480,7 +4623,7 @@
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4506,7 +4649,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4532,7 +4675,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4558,7 +4701,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4584,7 +4727,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4610,7 +4753,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4636,7 +4779,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4662,7 +4805,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4688,7 +4831,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4714,7 +4857,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4740,7 +4883,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4766,7 +4909,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4792,7 +4935,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4818,7 +4961,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4844,7 +4987,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4870,7 +5013,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4896,7 +5039,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4922,7 +5065,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4948,7 +5091,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4974,7 +5117,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5000,7 +5143,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5023,7 +5166,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5049,7 +5192,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5075,7 +5218,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5108,7 +5251,7 @@
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5139,7 +5282,7 @@
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5172,7 +5315,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5203,7 +5346,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5237,7 +5380,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5271,7 +5414,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5300,7 +5443,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5329,7 +5472,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5358,7 +5501,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5387,7 +5530,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5416,7 +5559,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5445,7 +5588,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5474,7 +5617,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5503,7 +5646,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5532,7 +5675,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5561,7 +5704,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5590,7 +5733,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5619,7 +5762,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5648,7 +5791,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5677,7 +5820,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5706,7 +5849,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5735,7 +5878,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5764,7 +5907,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5793,7 +5936,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5822,7 +5965,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5851,7 +5994,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5880,7 +6023,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5909,7 +6052,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5938,7 +6081,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5967,7 +6110,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5996,7 +6139,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6025,7 +6168,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6057,7 +6200,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6086,7 +6229,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6115,7 +6258,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6144,7 +6287,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6173,7 +6316,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6202,7 +6345,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6231,7 +6374,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6260,7 +6403,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6289,7 +6432,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6318,7 +6461,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6347,7 +6490,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6376,7 +6519,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6405,7 +6548,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6434,7 +6577,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6463,7 +6606,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6489,7 +6632,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6518,7 +6661,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6547,7 +6690,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6576,7 +6719,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6605,7 +6748,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6634,7 +6777,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6663,7 +6806,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6692,7 +6835,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6721,7 +6864,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6750,7 +6893,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6779,7 +6922,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6808,7 +6951,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6837,7 +6980,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6866,7 +7009,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6895,7 +7038,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6924,7 +7067,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6953,7 +7096,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6982,7 +7125,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7011,7 +7154,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7040,7 +7183,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7069,7 +7212,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7098,7 +7241,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7127,7 +7270,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7156,7 +7299,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7185,7 +7328,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7214,7 +7357,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7243,7 +7386,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7272,7 +7415,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7301,7 +7444,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7330,7 +7473,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7359,7 +7502,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7388,7 +7531,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7417,7 +7560,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7446,7 +7589,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7475,7 +7618,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7504,7 +7647,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7533,7 +7676,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7562,7 +7705,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7591,7 +7734,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7620,7 +7763,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:10">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7649,7 +7792,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:10">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7678,7 +7821,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:10">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7707,7 +7850,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7736,7 +7879,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7765,7 +7908,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:10">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7794,7 +7937,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7823,7 +7966,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7852,7 +7995,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7881,7 +8024,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7910,7 +8053,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7939,7 +8082,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:10">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7968,7 +8111,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:10">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7997,7 +8140,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:10">
       <c r="A147">
         <v>146</v>
       </c>
@@ -8026,7 +8169,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:10">
       <c r="A148">
         <v>147</v>
       </c>
@@ -8055,7 +8198,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:10">
       <c r="A149">
         <v>148</v>
       </c>
@@ -8084,7 +8227,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:10">
       <c r="A150">
         <v>149</v>
       </c>
@@ -8113,7 +8256,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:10">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8142,7 +8285,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:10">
       <c r="A152">
         <v>151</v>
       </c>
@@ -8171,7 +8314,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:10">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8200,7 +8343,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:10">
       <c r="A154">
         <v>153</v>
       </c>
@@ -8229,7 +8372,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:10">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8258,7 +8401,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:10">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8287,7 +8430,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:10">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8316,7 +8459,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:10">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8345,7 +8488,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:10">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8374,7 +8517,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:10">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8403,7 +8546,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8432,7 +8575,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:10">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8461,7 +8604,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:10">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8490,7 +8633,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:10">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8519,7 +8662,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:10">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8548,7 +8691,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:10">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8577,7 +8720,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:10">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8606,7 +8749,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:10">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8635,7 +8778,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:10">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8664,7 +8807,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:10">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8693,7 +8836,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:10">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8722,7 +8865,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:10">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8751,7 +8894,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:10">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8780,7 +8923,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:10">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8809,7 +8952,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:10">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8838,7 +8981,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:10">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8867,7 +9010,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:10">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8896,7 +9039,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:10">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8925,7 +9068,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:10">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8954,7 +9097,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:10">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8983,7 +9126,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:10">
       <c r="A181">
         <v>180</v>
       </c>
@@ -9012,7 +9155,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:10">
       <c r="A182">
         <v>181</v>
       </c>
@@ -9041,7 +9184,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:10">
       <c r="A183">
         <v>182</v>
       </c>
@@ -9070,7 +9213,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:10">
       <c r="A184">
         <v>183</v>
       </c>
@@ -9099,7 +9242,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:10">
       <c r="A185">
         <v>184</v>
       </c>
@@ -9128,7 +9271,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:10">
       <c r="A186">
         <v>185</v>
       </c>
@@ -9157,7 +9300,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:10">
       <c r="A187">
         <v>186</v>
       </c>
@@ -9186,7 +9329,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:10">
       <c r="A188">
         <v>187</v>
       </c>
@@ -9215,7 +9358,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:10">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9244,7 +9387,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:10">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9273,7 +9416,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:10">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9302,7 +9445,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:10">
       <c r="A192">
         <v>191</v>
       </c>
@@ -9331,7 +9474,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:11">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9360,7 +9503,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:11">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9389,7 +9532,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:11">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9418,7 +9561,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:11">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9447,7 +9590,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:11">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9476,7 +9619,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:11">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9496,67 +9639,368 @@
         <v>772</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C199" s="2"/>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C200" s="2"/>
-      <c r="E200" s="12"/>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C199" s="2">
+        <v>42699</v>
+      </c>
+      <c r="D199" t="s">
+        <v>797</v>
+      </c>
+      <c r="E199" t="s">
+        <v>798</v>
+      </c>
+      <c r="F199">
+        <v>79.3</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="J199" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C200" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D200" t="s">
+        <v>584</v>
+      </c>
+      <c r="E200" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="F200">
+        <v>212</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>776</v>
+      </c>
       <c r="I200" s="12"/>
-      <c r="J200" s="12"/>
+      <c r="J200" s="12" t="s">
+        <v>615</v>
+      </c>
       <c r="K200" s="12"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C201" s="2"/>
-      <c r="E201" s="12"/>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C201" s="2">
+        <v>42800</v>
+      </c>
+      <c r="D201" t="s">
+        <v>584</v>
+      </c>
+      <c r="E201" s="12" t="s">
+        <v>805</v>
+      </c>
+      <c r="F201">
+        <v>174.9</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>779</v>
+      </c>
       <c r="I201" s="12"/>
-      <c r="J201" s="12"/>
+      <c r="J201" s="12" t="s">
+        <v>780</v>
+      </c>
       <c r="K201" s="12"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C202" s="2"/>
-      <c r="E202" s="2"/>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C202" s="2">
+        <v>42785</v>
+      </c>
+      <c r="D202" t="s">
+        <v>584</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="F202">
+        <v>193.6</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>783</v>
+      </c>
       <c r="I202" s="12"/>
-      <c r="J202" s="12"/>
+      <c r="J202" s="12" t="s">
+        <v>780</v>
+      </c>
       <c r="K202" s="12"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C203" s="2"/>
-      <c r="E203" s="12"/>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C203" s="2">
+        <v>42775</v>
+      </c>
+      <c r="D203" t="s">
+        <v>584</v>
+      </c>
+      <c r="E203" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="F203">
+        <v>508</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>785</v>
+      </c>
       <c r="I203" s="12"/>
-      <c r="J203" s="12"/>
+      <c r="J203" s="12" t="s">
+        <v>588</v>
+      </c>
       <c r="K203" s="12"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C204" s="2"/>
-      <c r="E204" s="12"/>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C204" s="2">
+        <v>42735</v>
+      </c>
+      <c r="D204" t="s">
+        <v>584</v>
+      </c>
+      <c r="E204" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="F204">
+        <v>207</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>709</v>
+      </c>
       <c r="I204" s="12"/>
-      <c r="J204" s="12"/>
+      <c r="J204" s="12" t="s">
+        <v>662</v>
+      </c>
       <c r="K204" s="12"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C205" s="2"/>
-      <c r="E205" s="12"/>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C205" s="2">
+        <v>42819</v>
+      </c>
+      <c r="D205" t="s">
+        <v>584</v>
+      </c>
+      <c r="E205" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="F205">
+        <v>199.71</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>789</v>
+      </c>
       <c r="I205" s="12"/>
-      <c r="J205" s="12"/>
+      <c r="J205" s="12" t="s">
+        <v>790</v>
+      </c>
       <c r="K205" s="12"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C206" s="2"/>
-      <c r="E206" s="12"/>
-      <c r="I206" s="12"/>
-      <c r="J206" s="12"/>
-      <c r="K206" s="12"/>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C207" s="2"/>
-      <c r="E207" s="12"/>
-      <c r="I207" s="12"/>
-      <c r="J207" s="12"/>
-      <c r="K207" s="12"/>
-    </row>
-    <row r="899" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G899" s="1">
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C206" s="2">
+        <v>42793</v>
+      </c>
+      <c r="D206" t="s">
+        <v>584</v>
+      </c>
+      <c r="E206" t="s">
+        <v>800</v>
+      </c>
+      <c r="F206">
+        <v>106</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="J206" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C207" s="2">
+        <v>42793</v>
+      </c>
+      <c r="D207" t="s">
+        <v>584</v>
+      </c>
+      <c r="E207" t="s">
+        <v>801</v>
+      </c>
+      <c r="F207">
+        <v>106</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="J207" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C208" s="2">
+        <v>42779</v>
+      </c>
+      <c r="D208" t="s">
+        <v>584</v>
+      </c>
+      <c r="E208" s="12" t="s">
+        <v>802</v>
+      </c>
+      <c r="F208">
+        <v>100</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="J208" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C209" s="2">
+        <v>42716</v>
+      </c>
+      <c r="D209" t="s">
+        <v>797</v>
+      </c>
+      <c r="E209" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="F209">
+        <v>595</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="J209" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C210" s="2">
+        <v>42790</v>
+      </c>
+      <c r="D210" t="s">
+        <v>797</v>
+      </c>
+      <c r="E210" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="F210">
+        <v>707</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="J210" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="897" spans="7:7">
+      <c r="G897" s="1">
         <v>2</v>
       </c>
     </row>

--- a/采购单规范v0.2/发票-凭证表.xlsx
+++ b/采购单规范v0.2/发票-凭证表.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop Documents\TU_smart\AboutMoney2017\采购单规范v0.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="4845" yWindow="-60" windowWidth="19395" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="848">
   <si>
     <t>﻿序号</t>
   </si>
@@ -3107,12 +3112,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2016-12-13 光电四轮组 孟硕 525.87元</t>
-  </si>
-  <si>
-    <t>2016-12-17 光电四轮组 孟硕 169.49元</t>
-  </si>
-  <si>
     <t>02376319</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3265,9 +3264,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2016-12-24 光电四轮组 孟硕 40.70元</t>
-  </si>
-  <si>
     <t>144031601133</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3288,9 +3284,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2016-12-24 光电四轮组 孟硕 27.00元</t>
-  </si>
-  <si>
     <t>144031601133</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3303,9 +3296,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2016-12-24 光电四轮组 孟硕 105.00元</t>
-  </si>
-  <si>
     <t>3400164320</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3318,9 +3308,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2017-02-12 光电四轮组 孟硕 196.00元</t>
-  </si>
-  <si>
     <t>111001473051</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3341,9 +3328,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2017-02-12 光电四轮组 孟硕 740.00元</t>
-  </si>
-  <si>
     <t>91110108754674116M</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3608,17 +3592,167 @@
   </si>
   <si>
     <t>2017-02-23 电磁组 杨秉文 707.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-13 信标组 孟硕 525.87元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-17 信标组 孟硕 169.49元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-24 信标组 孟硕 40.70元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-24 信标组 孟硕 27.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-24 信标组 孟硕 105.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-12 信标组 孟硕 196.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-12 信标组 孟硕 740.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>28479110</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-03-30 信标组 孟硕 300.00元</t>
+  </si>
+  <si>
+    <t>3100171320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>310109470731122</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>46658004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-04-13 信标组 孟硕 375.00元</t>
+  </si>
+  <si>
+    <t>4400164320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>914419007783497726</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00931305</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-05-05 信标组 孟硕 49.50元</t>
+  </si>
+  <si>
+    <t>132011780230</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>91320115302419106N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏南京国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>05141692</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-05-07 信标组 孟硕 839.50元</t>
+  </si>
+  <si>
+    <t>3400171320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>91340200MA2N4CNA44</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17042467</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-05-08 信标组 孟硕 417.00元</t>
+  </si>
+  <si>
+    <t>4200163320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>91420100303351203T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02937818</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-05-09 信标组 孟硕 178.00元</t>
+  </si>
+  <si>
+    <t>144031601133</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>440309969261874</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东深圳国税</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3826,7 +3960,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3858,9 +3992,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3892,6 +4027,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4067,14 +4203,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L897"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="E213" sqref="E213"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="J216" sqref="J216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
@@ -4084,7 +4220,7 @@
     <col min="8" max="8" width="22.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4110,7 +4246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4128,7 +4264,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4148,7 +4284,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4168,7 +4304,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4188,7 +4324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4205,7 +4341,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4225,7 +4361,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4245,7 +4381,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4262,7 +4398,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4279,7 +4415,7 @@
         <v>1081.5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4299,7 +4435,7 @@
         <v>349.6</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4326,7 +4462,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4353,7 +4489,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4380,7 +4516,7 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4407,7 +4543,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4434,7 +4570,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4461,7 +4597,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4488,7 +4624,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4515,7 +4651,7 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4542,7 +4678,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4569,7 +4705,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4596,7 +4732,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4623,7 +4759,7 @@
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4649,7 +4785,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4675,7 +4811,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4701,7 +4837,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4727,7 +4863,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4753,7 +4889,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4779,7 +4915,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4805,7 +4941,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4831,7 +4967,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4857,7 +4993,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4883,7 +5019,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4909,7 +5045,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4935,7 +5071,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4961,7 +5097,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4987,7 +5123,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5013,7 +5149,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5039,7 +5175,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5065,7 +5201,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5091,7 +5227,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5117,7 +5253,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5143,7 +5279,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5166,7 +5302,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5192,7 +5328,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5218,7 +5354,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5251,7 +5387,7 @@
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5282,7 +5418,7 @@
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5315,7 +5451,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5346,7 +5482,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5380,7 +5516,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5414,7 +5550,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5443,7 +5579,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5472,7 +5608,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5501,7 +5637,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5530,7 +5666,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5559,7 +5695,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5588,7 +5724,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5617,7 +5753,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5646,7 +5782,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5675,7 +5811,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5704,7 +5840,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5733,7 +5869,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5762,7 +5898,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5791,7 +5927,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5820,7 +5956,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5849,7 +5985,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5878,7 +6014,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5907,7 +6043,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5936,7 +6072,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5965,7 +6101,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5994,7 +6130,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6023,7 +6159,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6052,7 +6188,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6081,7 +6217,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6110,7 +6246,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6139,7 +6275,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6168,7 +6304,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6200,7 +6336,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6229,7 +6365,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6258,7 +6394,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6287,7 +6423,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6316,7 +6452,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6345,7 +6481,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6374,7 +6510,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6403,7 +6539,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6432,7 +6568,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6461,7 +6597,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6490,7 +6626,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6519,7 +6655,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6548,7 +6684,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6577,7 +6713,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6606,7 +6742,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6632,7 +6768,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6661,7 +6797,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6690,7 +6826,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6719,7 +6855,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6748,7 +6884,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6777,7 +6913,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6806,7 +6942,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6835,7 +6971,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6864,7 +7000,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6893,7 +7029,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6922,7 +7058,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6951,7 +7087,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6980,7 +7116,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7009,7 +7145,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7038,7 +7174,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7067,7 +7203,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7096,7 +7232,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7125,7 +7261,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7154,7 +7290,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7183,7 +7319,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7212,7 +7348,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7241,7 +7377,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7270,7 +7406,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7299,7 +7435,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7328,7 +7464,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7357,7 +7493,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7386,7 +7522,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7415,7 +7551,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7444,7 +7580,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7473,7 +7609,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7502,7 +7638,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7531,7 +7667,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7560,7 +7696,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7589,7 +7725,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7618,7 +7754,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7647,7 +7783,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7676,7 +7812,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7705,7 +7841,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7734,7 +7870,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7763,7 +7899,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7792,7 +7928,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7821,7 +7957,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7850,7 +7986,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7879,7 +8015,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7908,7 +8044,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7937,7 +8073,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7966,7 +8102,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7995,7 +8131,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>141</v>
       </c>
@@ -8024,7 +8160,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>142</v>
       </c>
@@ -8053,7 +8189,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>143</v>
       </c>
@@ -8082,7 +8218,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>144</v>
       </c>
@@ -8111,7 +8247,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>145</v>
       </c>
@@ -8140,7 +8276,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>146</v>
       </c>
@@ -8169,7 +8305,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>147</v>
       </c>
@@ -8198,7 +8334,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>148</v>
       </c>
@@ -8227,7 +8363,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>149</v>
       </c>
@@ -8256,7 +8392,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8285,7 +8421,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>151</v>
       </c>
@@ -8314,7 +8450,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8343,7 +8479,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>153</v>
       </c>
@@ -8372,7 +8508,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8401,7 +8537,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8430,7 +8566,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8459,7 +8595,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8488,7 +8624,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8517,7 +8653,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8546,7 +8682,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8575,7 +8711,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8604,7 +8740,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8633,7 +8769,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8662,7 +8798,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8691,7 +8827,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8720,7 +8856,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8749,7 +8885,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8778,7 +8914,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8807,7 +8943,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8836,7 +8972,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8850,7 +8986,7 @@
         <v>652</v>
       </c>
       <c r="E171" t="s">
-        <v>669</v>
+        <v>809</v>
       </c>
       <c r="F171" s="3">
         <v>525.87</v>
@@ -8865,12 +9001,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C172" s="2">
         <v>42721</v>
@@ -8879,239 +9015,239 @@
         <v>652</v>
       </c>
       <c r="E172" t="s">
-        <v>670</v>
+        <v>810</v>
       </c>
       <c r="F172" s="3">
         <v>169.49</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J172" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C173" s="2">
         <v>42727</v>
       </c>
       <c r="D173" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E173" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F173">
         <v>42.5</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J173" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C174" s="2">
         <v>42724</v>
       </c>
       <c r="D174" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E174" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F174">
         <v>168</v>
       </c>
       <c r="G174" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="J174" t="s">
         <v>681</v>
       </c>
-      <c r="H174" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="J174" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10">
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C175" s="2">
         <v>42724</v>
       </c>
       <c r="D175" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E175" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F175">
         <v>27.4</v>
       </c>
       <c r="G175" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="J175" t="s">
         <v>681</v>
       </c>
-      <c r="H175" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="J175" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C176" s="2">
         <v>42725</v>
       </c>
       <c r="D176" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E176" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F176">
         <v>120</v>
       </c>
       <c r="G176" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="J176" t="s">
         <v>689</v>
       </c>
-      <c r="H176" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="J176" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10">
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C177" s="2">
         <v>42730</v>
       </c>
       <c r="D177" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E177" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F177">
         <v>100</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J177" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C178" s="2">
         <v>42713</v>
       </c>
       <c r="D178" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E178" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F178">
         <v>54.88</v>
       </c>
       <c r="G178" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="J178" t="s">
         <v>698</v>
       </c>
-      <c r="H178" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="J178" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10">
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C179" s="2">
         <v>42713</v>
       </c>
       <c r="D179" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E179" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F179">
         <v>130</v>
       </c>
       <c r="G179" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="J179" t="s">
         <v>681</v>
       </c>
-      <c r="H179" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="J179" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10">
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C180" s="2">
         <v>42717</v>
       </c>
       <c r="D180" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E180" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F180">
         <v>120</v>
@@ -9120,506 +9256,506 @@
         <v>608</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J180" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C181" s="2">
         <v>42781</v>
       </c>
       <c r="D181" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E181" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F181">
         <v>150</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="J181" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C182" s="2">
         <v>42783</v>
       </c>
       <c r="D182" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E182" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F182">
         <v>456</v>
       </c>
       <c r="G182" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="J182" t="s">
         <v>681</v>
       </c>
-      <c r="H182" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="J182" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10">
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C183" s="2">
         <v>42781</v>
       </c>
       <c r="D183" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E183" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F183">
         <v>390</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="J183" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C184" s="2">
         <v>42787</v>
       </c>
       <c r="D184" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E184" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F184">
         <v>70</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="J184" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C185" s="2">
         <v>42728</v>
       </c>
       <c r="D185" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E185" t="s">
-        <v>720</v>
+        <v>811</v>
       </c>
       <c r="F185">
         <v>40.700000000000003</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="J185" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C186" s="2">
         <v>42728</v>
       </c>
       <c r="D186" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E186" t="s">
-        <v>726</v>
+        <v>812</v>
       </c>
       <c r="F186">
         <v>27</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="J186" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C187" s="2">
         <v>42728</v>
       </c>
       <c r="D187" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E187" t="s">
-        <v>730</v>
+        <v>813</v>
       </c>
       <c r="F187">
         <v>105</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>666</v>
       </c>
       <c r="J187" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C188" s="2">
         <v>42778</v>
       </c>
       <c r="D188" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E188" t="s">
-        <v>734</v>
+        <v>814</v>
       </c>
       <c r="F188">
         <v>196</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="J188" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C189" s="2">
         <v>42778</v>
       </c>
       <c r="D189" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="E189" t="s">
-        <v>740</v>
+        <v>815</v>
       </c>
       <c r="F189">
         <v>740</v>
       </c>
       <c r="G189" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="J189" t="s">
         <v>735</v>
       </c>
-      <c r="H189" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="J189" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10">
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="C190" s="2">
         <v>42793</v>
       </c>
       <c r="D190" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="E190" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="F190">
         <v>275</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="J190" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="C191" s="2">
         <v>42793</v>
       </c>
       <c r="D191" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="E191" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="F191">
         <v>275</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="J191" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="C192" s="2">
         <v>42791</v>
       </c>
       <c r="D192" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="E192" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="F192">
         <v>375</v>
       </c>
       <c r="G192" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="J192" t="s">
         <v>681</v>
       </c>
-      <c r="H192" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="J192" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="C193" s="2">
         <v>42803</v>
       </c>
       <c r="D193" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="E193" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="F193">
         <v>143</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="J193" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="C194" s="2">
         <v>42805</v>
       </c>
       <c r="D194" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="E194" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="F194">
         <v>143</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="J194" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="C195" s="2">
         <v>42807</v>
       </c>
       <c r="D195" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="E195" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="F195">
         <v>680</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="J195" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="C196" s="2">
         <v>42806</v>
       </c>
       <c r="D196" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="E196" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="F196">
         <v>66</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J196" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="C197" s="2">
         <v>42806</v>
       </c>
       <c r="D197" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="E197" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="F197">
         <v>59.5</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="J197" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9627,33 +9763,33 @@
         <v>42833</v>
       </c>
       <c r="D198" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="E198" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F198">
         <v>930</v>
       </c>
       <c r="J198" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="C199" s="2">
         <v>42699</v>
       </c>
       <c r="D199" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="E199" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F199">
         <v>79.3</v>
@@ -9662,18 +9798,18 @@
         <v>608</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="J199" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="C200" s="2">
         <v>42741</v>
@@ -9682,16 +9818,16 @@
         <v>584</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="F200">
         <v>212</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="I200" s="12"/>
       <c r="J200" s="12" t="s">
@@ -9699,12 +9835,12 @@
       </c>
       <c r="K200" s="12"/>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C201" s="2">
         <v>42800</v>
@@ -9713,29 +9849,29 @@
         <v>584</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="F201">
         <v>174.9</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="I201" s="12"/>
       <c r="J201" s="12" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="K201" s="12"/>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="C202" s="2">
         <v>42785</v>
@@ -9744,29 +9880,29 @@
         <v>584</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="F202">
         <v>193.6</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="I202" s="12"/>
       <c r="J202" s="12" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="K202" s="12"/>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="C203" s="2">
         <v>42775</v>
@@ -9775,7 +9911,7 @@
         <v>584</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="F203">
         <v>508</v>
@@ -9784,7 +9920,7 @@
         <v>586</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="I203" s="12"/>
       <c r="J203" s="12" t="s">
@@ -9792,12 +9928,12 @@
       </c>
       <c r="K203" s="12"/>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="C204" s="2">
         <v>42735</v>
@@ -9806,16 +9942,16 @@
         <v>584</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="F204">
         <v>207</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="I204" s="12"/>
       <c r="J204" s="12" t="s">
@@ -9823,12 +9959,12 @@
       </c>
       <c r="K204" s="12"/>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="C205" s="2">
         <v>42819</v>
@@ -9837,29 +9973,29 @@
         <v>584</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="F205">
         <v>199.71</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="I205" s="12"/>
       <c r="J205" s="12" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="K205" s="12"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="C206" s="2">
         <v>42793</v>
@@ -9868,27 +10004,27 @@
         <v>584</v>
       </c>
       <c r="E206" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="F206">
         <v>106</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="J206" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="C207" s="2">
         <v>42793</v>
@@ -9897,27 +10033,27 @@
         <v>584</v>
       </c>
       <c r="E207" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="F207">
         <v>106</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="J207" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="C208" s="2">
         <v>42779</v>
@@ -9926,80 +10062,254 @@
         <v>584</v>
       </c>
       <c r="E208" s="12" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="F208">
         <v>100</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="J208" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="C209" s="2">
         <v>42716</v>
       </c>
       <c r="D209" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="E209" s="12" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F209">
         <v>595</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="J209" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="C210" s="2">
         <v>42790</v>
       </c>
       <c r="D210" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="F210">
         <v>707</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="J210" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="897" spans="7:7">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C211" s="2">
+        <v>42824</v>
+      </c>
+      <c r="D211" t="s">
+        <v>817</v>
+      </c>
+      <c r="E211" t="s">
+        <v>818</v>
+      </c>
+      <c r="F211">
+        <v>300</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="J211" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C212" s="2">
+        <v>42838</v>
+      </c>
+      <c r="D212" t="s">
+        <v>823</v>
+      </c>
+      <c r="E212" t="s">
+        <v>824</v>
+      </c>
+      <c r="F212">
+        <v>375</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="J212" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C213" s="2">
+        <v>42860</v>
+      </c>
+      <c r="D213" t="s">
+        <v>823</v>
+      </c>
+      <c r="E213" t="s">
+        <v>829</v>
+      </c>
+      <c r="F213">
+        <v>49.5</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="J213" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C214" s="2">
+        <v>42862</v>
+      </c>
+      <c r="D214" t="s">
+        <v>817</v>
+      </c>
+      <c r="E214" t="s">
+        <v>834</v>
+      </c>
+      <c r="F214">
+        <v>839.5</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="J214" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C215" s="2">
+        <v>42863</v>
+      </c>
+      <c r="D215" t="s">
+        <v>817</v>
+      </c>
+      <c r="E215" t="s">
+        <v>839</v>
+      </c>
+      <c r="F215">
+        <v>417</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="J215" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C216" s="2">
+        <v>42864</v>
+      </c>
+      <c r="D216" t="s">
+        <v>817</v>
+      </c>
+      <c r="E216" t="s">
+        <v>844</v>
+      </c>
+      <c r="F216">
+        <v>178</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="J216" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="897" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G897" s="1">
         <v>2</v>
       </c>

--- a/采购单规范v0.2/发票-凭证表.xlsx
+++ b/采购单规范v0.2/发票-凭证表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop Documents\TU_smart\AboutMoney2017\采购单规范v0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soda\Documents\GitHub\AboutMoney2017\采购单规范v0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="-60" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="5775" yWindow="-60" windowWidth="19395" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="847">
   <si>
     <t>﻿序号</t>
   </si>
@@ -3232,21 +3232,6 @@
     <t>320400086983959</t>
   </si>
   <si>
-    <t>02326380</t>
-  </si>
-  <si>
-    <t>2017-02-17 电轨组 赵杰 456.00元</t>
-  </si>
-  <si>
-    <t>57435622</t>
-  </si>
-  <si>
-    <t>2017-02-08 电轨组 赵杰 390.00元</t>
-  </si>
-  <si>
-    <t>42010719470512102900</t>
-  </si>
-  <si>
     <t>21676481</t>
   </si>
   <si>
@@ -3336,23 +3321,289 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>00858603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵杰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-02-25 电轨组 赵杰 275.00元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>144001601320</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>36213719760926323501</t>
+    <t>10977313</t>
+  </si>
+  <si>
+    <t>3200161350</t>
+  </si>
+  <si>
+    <t>91320412557096660Q</t>
+  </si>
+  <si>
+    <t>01166755</t>
+  </si>
+  <si>
+    <t>440300087022877</t>
+  </si>
+  <si>
+    <t>10977320</t>
+  </si>
+  <si>
+    <t>10413261</t>
+  </si>
+  <si>
+    <t>09543474</t>
+  </si>
+  <si>
+    <t>1100171320</t>
+  </si>
+  <si>
+    <t>420984197810012027</t>
+  </si>
+  <si>
+    <t>李秋键</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李秋键</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-03-09 国创 李秋键 143.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-03-11 国创 李秋键 143.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-03-12 国创 李秋键 66.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-03-12 国创 李秋键 59.50元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-03-11 国创 李秋键 680.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-04-28 创意组 李秋键 930.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13918229</t>
+  </si>
+  <si>
+    <t>44030400DK00395</t>
+  </si>
+  <si>
+    <t>57435373</t>
+  </si>
+  <si>
+    <t>42122219890912288101</t>
+  </si>
+  <si>
+    <t>04353036</t>
+  </si>
+  <si>
+    <t>3400171320</t>
+  </si>
+  <si>
+    <t>91340200MA2N4CNA44</t>
+  </si>
+  <si>
+    <t>安徽国税</t>
+  </si>
+  <si>
+    <t>01753434</t>
+  </si>
+  <si>
+    <t>3400164320</t>
+  </si>
+  <si>
+    <t>34020757441494X</t>
+  </si>
+  <si>
+    <t>20249730</t>
+  </si>
+  <si>
+    <t>110108102085877</t>
+  </si>
+  <si>
+    <t>12349525</t>
+  </si>
+  <si>
+    <t>10605696</t>
+  </si>
+  <si>
+    <t>3300163320</t>
+  </si>
+  <si>
+    <t>91330108341779219Y</t>
+  </si>
+  <si>
+    <t>浙江国税</t>
+  </si>
+  <si>
+    <t>18671913</t>
+  </si>
+  <si>
+    <t>4400164320</t>
+  </si>
+  <si>
+    <t>18671915</t>
+  </si>
+  <si>
+    <t>57478509</t>
+  </si>
+  <si>
+    <t>2017-01-05 电磁组 杨秉文 212.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-09 电磁组 杨秉文 508.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨秉文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-11-22 电磁组 杨秉文 79.30元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-09 电磁组 杨秉文 193.60元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-23 电磁组 杨秉文 212.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-23 电磁组 杨秉文 212.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-29 电磁组 杨秉文 100.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-03-24 电磁组 杨秉文 199.71元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-31 电磁组 杨秉文 207.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-03-06 电磁组 杨秉文 174.90元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>37930895</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100154320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>911101090741802511</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11603028</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100162320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>110109589115870</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-11 电磁组 杨秉文 595.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-23 电磁组 杨秉文 707.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-13 信标组 孟硕 525.87元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-17 信标组 孟硕 169.49元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-24 信标组 孟硕 40.70元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-24 信标组 孟硕 27.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-24 信标组 孟硕 105.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-12 信标组 孟硕 196.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-12 信标组 孟硕 740.00元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>28479110</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-03-30 信标组 孟硕 300.00元</t>
+  </si>
+  <si>
+    <t>3100171320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>310109470731122</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>46658004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-04-13 信标组 孟硕 375.00元</t>
+  </si>
+  <si>
+    <t>4400164320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>914419007783497726</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3360,350 +3611,41 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>00858601</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-02-25 电轨组 赵杰 275.00元-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>02326390</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵杰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-02-24 电轨组 赵杰 347.00元</t>
-  </si>
-  <si>
-    <t>10977313</t>
-  </si>
-  <si>
-    <t>3200161350</t>
-  </si>
-  <si>
-    <t>91320412557096660Q</t>
-  </si>
-  <si>
-    <t>01166755</t>
-  </si>
-  <si>
-    <t>440300087022877</t>
-  </si>
-  <si>
-    <t>10977320</t>
-  </si>
-  <si>
-    <t>10413261</t>
-  </si>
-  <si>
-    <t>09543474</t>
-  </si>
-  <si>
-    <t>1100171320</t>
-  </si>
-  <si>
-    <t>420984197810012027</t>
-  </si>
-  <si>
-    <t>李秋键</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李秋键</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-03-09 国创 李秋键 143.00元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-03-11 国创 李秋键 143.00元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-03-12 国创 李秋键 66.00元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-03-12 国创 李秋键 59.50元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-03-11 国创 李秋键 680.00元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-04-28 创意组 李秋键 930.00元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京国税</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13918229</t>
-  </si>
-  <si>
-    <t>44030400DK00395</t>
-  </si>
-  <si>
-    <t>57435373</t>
-  </si>
-  <si>
-    <t>42122219890912288101</t>
-  </si>
-  <si>
-    <t>04353036</t>
+    <t>00931305</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-05-05 信标组 孟硕 49.50元</t>
+  </si>
+  <si>
+    <t>132011780230</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>91320115302419106N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏南京国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>05141692</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-05-07 信标组 孟硕 839.50元</t>
   </si>
   <si>
     <t>3400171320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>91340200MA2N4CNA44</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>安徽国税</t>
-  </si>
-  <si>
-    <t>01753434</t>
-  </si>
-  <si>
-    <t>3400164320</t>
-  </si>
-  <si>
-    <t>34020757441494X</t>
-  </si>
-  <si>
-    <t>20249730</t>
-  </si>
-  <si>
-    <t>110108102085877</t>
-  </si>
-  <si>
-    <t>12349525</t>
-  </si>
-  <si>
-    <t>10605696</t>
-  </si>
-  <si>
-    <t>3300163320</t>
-  </si>
-  <si>
-    <t>91330108341779219Y</t>
-  </si>
-  <si>
-    <t>浙江国税</t>
-  </si>
-  <si>
-    <t>18671913</t>
-  </si>
-  <si>
-    <t>4400164320</t>
-  </si>
-  <si>
-    <t>18671915</t>
-  </si>
-  <si>
-    <t>57478509</t>
-  </si>
-  <si>
-    <t>2017-01-05 电磁组 杨秉文 212.00元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-02-09 电磁组 杨秉文 508.00元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨秉文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-11-22 电磁组 杨秉文 79.30元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-02-09 电磁组 杨秉文 193.60元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-02-23 电磁组 杨秉文 212.00元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-02-23 电磁组 杨秉文 212.00元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-02-29 电磁组 杨秉文 100.00元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-03-24 电磁组 杨秉文 199.71元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-12-31 电磁组 杨秉文 207.00元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-03-06 电磁组 杨秉文 174.90元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>37930895</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100154320</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>911101090741802511</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京国税</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11603028</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100162320</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>110109589115870</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京国税</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-12-11 电磁组 杨秉文 595.00元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-02-23 电磁组 杨秉文 707.00元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-12-13 信标组 孟硕 525.87元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-12-17 信标组 孟硕 169.49元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-12-24 信标组 孟硕 40.70元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-12-24 信标组 孟硕 27.00元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-12-24 信标组 孟硕 105.00元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-02-12 信标组 孟硕 196.00元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-02-12 信标组 孟硕 740.00元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>28479110</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>孟硕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-03-30 信标组 孟硕 300.00元</t>
-  </si>
-  <si>
-    <t>3100171320</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>310109470731122</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海国税</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>46658004</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>孟硕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-04-13 信标组 孟硕 375.00元</t>
-  </si>
-  <si>
-    <t>4400164320</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>914419007783497726</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东国税</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>00931305</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-05-05 信标组 孟硕 49.50元</t>
-  </si>
-  <si>
-    <t>132011780230</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>91320115302419106N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>江苏南京国税</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>05141692</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-05-07 信标组 孟硕 839.50元</t>
-  </si>
-  <si>
-    <t>3400171320</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>91340200MA2N4CNA44</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>安徽国税</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3743,6 +3685,51 @@
   <si>
     <t>广东深圳国税</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03726853</t>
+  </si>
+  <si>
+    <t>2017-04-05 电轨组 赵杰 110.75元</t>
+  </si>
+  <si>
+    <t>144001601110</t>
+  </si>
+  <si>
+    <t>440106L6752168X</t>
+  </si>
+  <si>
+    <t>33237799</t>
+  </si>
+  <si>
+    <t>2017-04-08 电轨组 赵杰 300.00元</t>
+  </si>
+  <si>
+    <t>03352949</t>
+  </si>
+  <si>
+    <t>2017-04-19 电轨组 赵杰 350.00元</t>
+  </si>
+  <si>
+    <t>05197321</t>
+  </si>
+  <si>
+    <t>2017-04-31 电轨组 赵杰 118.50元</t>
+  </si>
+  <si>
+    <t>02749420</t>
+  </si>
+  <si>
+    <t>2017-05-01 电轨组 赵杰 350.00元</t>
+  </si>
+  <si>
+    <t>77556072</t>
+  </si>
+  <si>
+    <t>4400171320</t>
+  </si>
+  <si>
+    <t>43252219770101453600</t>
   </si>
 </sst>
 </file>
@@ -4206,8 +4193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L897"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="J216" sqref="J216"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8986,7 +8973,7 @@
         <v>652</v>
       </c>
       <c r="E171" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="F171" s="3">
         <v>525.87</v>
@@ -9015,7 +9002,7 @@
         <v>652</v>
       </c>
       <c r="E172" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="F172" s="3">
         <v>169.49</v>
@@ -9299,7 +9286,7 @@
         <v>708</v>
       </c>
       <c r="C182" s="2">
-        <v>42783</v>
+        <v>42787</v>
       </c>
       <c r="D182" t="s">
         <v>673</v>
@@ -9308,16 +9295,16 @@
         <v>709</v>
       </c>
       <c r="F182">
-        <v>456</v>
+        <v>70</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="J182" t="s">
-        <v>681</v>
+        <v>610</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.15">
@@ -9325,28 +9312,28 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C183" s="2">
-        <v>42781</v>
+        <v>42728</v>
       </c>
       <c r="D183" t="s">
-        <v>673</v>
+        <v>712</v>
       </c>
       <c r="E183" t="s">
-        <v>711</v>
+        <v>795</v>
       </c>
       <c r="F183">
-        <v>390</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>692</v>
+        <v>713</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="J183" t="s">
-        <v>615</v>
+        <v>715</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.15">
@@ -9354,28 +9341,28 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C184" s="2">
-        <v>42787</v>
+        <v>42728</v>
       </c>
       <c r="D184" t="s">
-        <v>673</v>
+        <v>717</v>
       </c>
       <c r="E184" t="s">
-        <v>714</v>
+        <v>796</v>
       </c>
       <c r="F184">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>675</v>
+        <v>718</v>
       </c>
       <c r="H184" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="J184" t="s">
         <v>715</v>
-      </c>
-      <c r="J184" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.15">
@@ -9383,28 +9370,28 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C185" s="2">
         <v>42728</v>
       </c>
       <c r="D185" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="E185" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="F185">
-        <v>40.700000000000003</v>
+        <v>105</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>719</v>
+        <v>666</v>
       </c>
       <c r="J185" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.15">
@@ -9412,28 +9399,28 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C186" s="2">
-        <v>42728</v>
+        <v>42778</v>
       </c>
       <c r="D186" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="E186" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="F186">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="J186" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.15">
@@ -9441,28 +9428,28 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C187" s="2">
-        <v>42728</v>
+        <v>42778</v>
       </c>
       <c r="D187" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="E187" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="F187">
-        <v>105</v>
+        <v>740</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>666</v>
+        <v>729</v>
       </c>
       <c r="J187" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.15">
@@ -9470,28 +9457,28 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C188" s="2">
-        <v>42778</v>
+        <v>42803</v>
       </c>
       <c r="D188" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="E188" t="s">
-        <v>814</v>
+        <v>743</v>
       </c>
       <c r="F188">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="J188" t="s">
-        <v>731</v>
+        <v>662</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.15">
@@ -9499,28 +9486,28 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C189" s="2">
-        <v>42778</v>
+        <v>42805</v>
       </c>
       <c r="D189" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="E189" t="s">
-        <v>815</v>
+        <v>744</v>
       </c>
       <c r="F189">
-        <v>740</v>
+        <v>143</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>729</v>
+        <v>679</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="J189" t="s">
-        <v>735</v>
+        <v>610</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.15">
@@ -9531,25 +9518,25 @@
         <v>736</v>
       </c>
       <c r="C190" s="2">
-        <v>42793</v>
+        <v>42807</v>
       </c>
       <c r="D190" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="E190" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="F190">
-        <v>275</v>
+        <v>680</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="J190" t="s">
-        <v>741</v>
+        <v>662</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.15">
@@ -9557,28 +9544,28 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C191" s="2">
+        <v>42806</v>
+      </c>
+      <c r="D191" t="s">
         <v>742</v>
       </c>
-      <c r="C191" s="2">
-        <v>42793</v>
-      </c>
-      <c r="D191" t="s">
-        <v>737</v>
-      </c>
       <c r="E191" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="F191">
-        <v>275</v>
+        <v>66</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>739</v>
+        <v>675</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>740</v>
+        <v>676</v>
       </c>
       <c r="J191" t="s">
-        <v>741</v>
+        <v>610</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.15">
@@ -9586,57 +9573,48 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C192" s="2">
-        <v>42791</v>
+        <v>42806</v>
       </c>
       <c r="D192" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E192" t="s">
         <v>746</v>
       </c>
       <c r="F192">
-        <v>375</v>
+        <v>59.5</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>679</v>
+        <v>739</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>680</v>
+        <v>740</v>
       </c>
       <c r="J192" t="s">
-        <v>681</v>
+        <v>588</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>747</v>
-      </c>
       <c r="C193" s="2">
-        <v>42803</v>
+        <v>42833</v>
       </c>
       <c r="D193" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="E193" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="F193">
-        <v>143</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="H193" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="J193" t="s">
         <v>749</v>
-      </c>
-      <c r="J193" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.15">
@@ -9647,19 +9625,19 @@
         <v>750</v>
       </c>
       <c r="C194" s="2">
-        <v>42805</v>
+        <v>42699</v>
       </c>
       <c r="D194" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="E194" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
       <c r="F194">
-        <v>143</v>
+        <v>79.3</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>679</v>
+        <v>608</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>751</v>
@@ -9676,25 +9654,26 @@
         <v>752</v>
       </c>
       <c r="C195" s="2">
-        <v>42807</v>
+        <v>42741</v>
       </c>
       <c r="D195" t="s">
-        <v>757</v>
-      </c>
-      <c r="E195" t="s">
-        <v>763</v>
+        <v>584</v>
+      </c>
+      <c r="E195" s="12" t="s">
+        <v>772</v>
       </c>
       <c r="F195">
-        <v>680</v>
+        <v>212</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>748</v>
+        <v>692</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="J195" t="s">
-        <v>662</v>
+        <v>753</v>
+      </c>
+      <c r="I195" s="12"/>
+      <c r="J195" s="12" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.15">
@@ -9702,28 +9681,29 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C196" s="2">
-        <v>42806</v>
+        <v>42800</v>
       </c>
       <c r="D196" t="s">
-        <v>758</v>
-      </c>
-      <c r="E196" t="s">
-        <v>761</v>
+        <v>584</v>
+      </c>
+      <c r="E196" s="12" t="s">
+        <v>782</v>
       </c>
       <c r="F196">
-        <v>66</v>
+        <v>174.9</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>675</v>
+        <v>755</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="J196" t="s">
-        <v>610</v>
+        <v>756</v>
+      </c>
+      <c r="I196" s="12"/>
+      <c r="J196" s="12" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.15">
@@ -9731,48 +9711,59 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="C197" s="2">
-        <v>42806</v>
+        <v>42785</v>
       </c>
       <c r="D197" t="s">
+        <v>584</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="F197">
+        <v>193.6</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="I197" s="12"/>
+      <c r="J197" s="12" t="s">
         <v>757</v>
-      </c>
-      <c r="E197" t="s">
-        <v>762</v>
-      </c>
-      <c r="F197">
-        <v>59.5</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="H197" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J197" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>197</v>
       </c>
+      <c r="B198" s="1" t="s">
+        <v>761</v>
+      </c>
       <c r="C198" s="2">
-        <v>42833</v>
+        <v>42775</v>
       </c>
       <c r="D198" t="s">
-        <v>758</v>
-      </c>
-      <c r="E198" t="s">
-        <v>764</v>
+        <v>584</v>
+      </c>
+      <c r="E198" s="12" t="s">
+        <v>773</v>
       </c>
       <c r="F198">
-        <v>930</v>
-      </c>
-      <c r="J198" t="s">
-        <v>765</v>
+        <v>508</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="I198" s="12"/>
+      <c r="J198" s="12" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.15">
@@ -9780,28 +9771,29 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C199" s="2">
-        <v>42699</v>
+        <v>42735</v>
       </c>
       <c r="D199" t="s">
-        <v>790</v>
-      </c>
-      <c r="E199" t="s">
-        <v>791</v>
+        <v>584</v>
+      </c>
+      <c r="E199" s="12" t="s">
+        <v>781</v>
       </c>
       <c r="F199">
-        <v>79.3</v>
+        <v>207</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>608</v>
+        <v>706</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="J199" t="s">
-        <v>610</v>
+        <v>707</v>
+      </c>
+      <c r="I199" s="12"/>
+      <c r="J199" s="12" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.15">
@@ -9809,29 +9801,29 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C200" s="2">
-        <v>42741</v>
+        <v>42819</v>
       </c>
       <c r="D200" t="s">
         <v>584</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="F200">
-        <v>212</v>
+        <v>199.71</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>692</v>
+        <v>765</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="I200" s="12"/>
       <c r="J200" s="12" t="s">
-        <v>615</v>
+        <v>767</v>
       </c>
       <c r="K200" s="12"/>
     </row>
@@ -9840,29 +9832,28 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C201" s="2">
-        <v>42800</v>
+        <v>42793</v>
       </c>
       <c r="D201" t="s">
         <v>584</v>
       </c>
-      <c r="E201" s="12" t="s">
-        <v>798</v>
+      <c r="E201" t="s">
+        <v>777</v>
       </c>
       <c r="F201">
-        <v>174.9</v>
+        <v>106</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="I201" s="12"/>
-      <c r="J201" s="12" t="s">
-        <v>773</v>
+        <v>753</v>
+      </c>
+      <c r="J201" t="s">
+        <v>615</v>
       </c>
       <c r="K201" s="12"/>
     </row>
@@ -9871,29 +9862,28 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C202" s="2">
-        <v>42785</v>
+        <v>42793</v>
       </c>
       <c r="D202" t="s">
         <v>584</v>
       </c>
-      <c r="E202" s="2" t="s">
-        <v>792</v>
+      <c r="E202" t="s">
+        <v>778</v>
       </c>
       <c r="F202">
-        <v>193.6</v>
+        <v>106</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="I202" s="12"/>
-      <c r="J202" s="12" t="s">
-        <v>773</v>
+        <v>753</v>
+      </c>
+      <c r="J202" t="s">
+        <v>615</v>
       </c>
       <c r="K202" s="12"/>
     </row>
@@ -9902,29 +9892,28 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="C203" s="2">
-        <v>42775</v>
+        <v>42779</v>
       </c>
       <c r="D203" t="s">
         <v>584</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="F203">
-        <v>508</v>
+        <v>100</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>586</v>
+        <v>692</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="I203" s="12"/>
-      <c r="J203" s="12" t="s">
-        <v>588</v>
+        <v>753</v>
+      </c>
+      <c r="J203" t="s">
+        <v>615</v>
       </c>
       <c r="K203" s="12"/>
     </row>
@@ -9933,29 +9922,28 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C204" s="2">
-        <v>42735</v>
+        <v>42716</v>
       </c>
       <c r="D204" t="s">
-        <v>584</v>
+        <v>774</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="F204">
-        <v>207</v>
+        <v>595</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>706</v>
+        <v>784</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="I204" s="12"/>
-      <c r="J204" s="12" t="s">
-        <v>662</v>
+        <v>785</v>
+      </c>
+      <c r="J204" t="s">
+        <v>786</v>
       </c>
       <c r="K204" s="12"/>
     </row>
@@ -9964,29 +9952,28 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="C205" s="2">
-        <v>42819</v>
+        <v>42790</v>
       </c>
       <c r="D205" t="s">
-        <v>584</v>
+        <v>774</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F205">
-        <v>199.71</v>
+        <v>707</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="I205" s="12"/>
-      <c r="J205" s="12" t="s">
-        <v>783</v>
+        <v>789</v>
+      </c>
+      <c r="J205" t="s">
+        <v>790</v>
       </c>
       <c r="K205" s="12"/>
     </row>
@@ -9995,28 +9982,28 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="C206" s="2">
-        <v>42793</v>
+        <v>42824</v>
       </c>
       <c r="D206" t="s">
-        <v>584</v>
+        <v>801</v>
       </c>
       <c r="E206" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="F206">
-        <v>106</v>
+        <v>300</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>769</v>
+        <v>804</v>
       </c>
       <c r="J206" t="s">
-        <v>615</v>
+        <v>805</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.15">
@@ -10024,28 +10011,28 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>786</v>
+        <v>806</v>
       </c>
       <c r="C207" s="2">
-        <v>42793</v>
+        <v>42838</v>
       </c>
       <c r="D207" t="s">
-        <v>584</v>
+        <v>807</v>
       </c>
       <c r="E207" t="s">
-        <v>794</v>
+        <v>808</v>
       </c>
       <c r="F207">
-        <v>106</v>
+        <v>375</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>785</v>
+        <v>809</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>769</v>
+        <v>810</v>
       </c>
       <c r="J207" t="s">
-        <v>615</v>
+        <v>811</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.15">
@@ -10053,28 +10040,28 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>787</v>
+        <v>812</v>
       </c>
       <c r="C208" s="2">
-        <v>42779</v>
+        <v>42860</v>
       </c>
       <c r="D208" t="s">
-        <v>584</v>
-      </c>
-      <c r="E208" s="12" t="s">
-        <v>795</v>
+        <v>807</v>
+      </c>
+      <c r="E208" t="s">
+        <v>813</v>
       </c>
       <c r="F208">
-        <v>100</v>
+        <v>49.5</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>692</v>
+        <v>814</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>769</v>
+        <v>815</v>
       </c>
       <c r="J208" t="s">
-        <v>615</v>
+        <v>816</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.15">
@@ -10082,28 +10069,28 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="C209" s="2">
-        <v>42716</v>
+        <v>42862</v>
       </c>
       <c r="D209" t="s">
-        <v>790</v>
-      </c>
-      <c r="E209" s="12" t="s">
-        <v>807</v>
+        <v>801</v>
+      </c>
+      <c r="E209" t="s">
+        <v>818</v>
       </c>
       <c r="F209">
-        <v>595</v>
+        <v>839.5</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>800</v>
+        <v>819</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="J209" t="s">
-        <v>802</v>
+        <v>821</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.15">
@@ -10111,28 +10098,28 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>803</v>
+        <v>822</v>
       </c>
       <c r="C210" s="2">
-        <v>42790</v>
+        <v>42863</v>
       </c>
       <c r="D210" t="s">
-        <v>790</v>
-      </c>
-      <c r="E210" s="12" t="s">
-        <v>808</v>
+        <v>801</v>
+      </c>
+      <c r="E210" t="s">
+        <v>823</v>
       </c>
       <c r="F210">
-        <v>707</v>
+        <v>417</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>804</v>
+        <v>824</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>805</v>
+        <v>825</v>
       </c>
       <c r="J210" t="s">
-        <v>806</v>
+        <v>826</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.15">
@@ -10140,28 +10127,28 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="C211" s="2">
-        <v>42824</v>
+        <v>42864</v>
       </c>
       <c r="D211" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="E211" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
       <c r="F211">
-        <v>300</v>
+        <v>178</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="J211" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.15">
@@ -10169,28 +10156,28 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="C212" s="2">
-        <v>42838</v>
+        <v>42830</v>
       </c>
       <c r="D212" t="s">
-        <v>823</v>
+        <v>673</v>
       </c>
       <c r="E212" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="F212">
-        <v>375</v>
+        <v>110.75</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="J212" t="s">
-        <v>827</v>
+        <v>615</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.15">
@@ -10198,28 +10185,28 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="C213" s="2">
-        <v>42860</v>
+        <v>42833</v>
       </c>
       <c r="D213" t="s">
-        <v>823</v>
+        <v>673</v>
       </c>
       <c r="E213" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="F213">
-        <v>49.5</v>
+        <v>300</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>830</v>
+        <v>675</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>831</v>
+        <v>703</v>
       </c>
       <c r="J213" t="s">
-        <v>832</v>
+        <v>610</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.15">
@@ -10227,28 +10214,28 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="C214" s="2">
-        <v>42862</v>
+        <v>42844</v>
       </c>
       <c r="D214" t="s">
-        <v>817</v>
+        <v>673</v>
       </c>
       <c r="E214" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="F214">
-        <v>839.5</v>
+        <v>350</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>835</v>
+        <v>679</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>836</v>
+        <v>680</v>
       </c>
       <c r="J214" t="s">
-        <v>837</v>
+        <v>681</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.15">
@@ -10256,28 +10243,28 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C215" s="2">
-        <v>42863</v>
+        <v>42855</v>
       </c>
       <c r="D215" t="s">
-        <v>817</v>
+        <v>673</v>
       </c>
       <c r="E215" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="F215">
-        <v>417</v>
+        <v>118.5</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>840</v>
+        <v>755</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>841</v>
+        <v>756</v>
       </c>
       <c r="J215" t="s">
-        <v>842</v>
+        <v>757</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.15">
@@ -10285,28 +10272,57 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C216" s="2">
+        <v>42856</v>
+      </c>
+      <c r="D216" t="s">
+        <v>673</v>
+      </c>
+      <c r="E216" t="s">
         <v>843</v>
       </c>
-      <c r="C216" s="2">
-        <v>42864</v>
-      </c>
-      <c r="D216" t="s">
-        <v>817</v>
-      </c>
-      <c r="E216" t="s">
+      <c r="F216">
+        <v>350</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="J216" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="F216">
-        <v>178</v>
-      </c>
-      <c r="G216" s="1" t="s">
+      <c r="C217" s="2">
+        <v>42856</v>
+      </c>
+      <c r="D217" t="s">
+        <v>673</v>
+      </c>
+      <c r="E217" t="s">
+        <v>843</v>
+      </c>
+      <c r="F217">
+        <v>350</v>
+      </c>
+      <c r="G217" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="H216" s="1" t="s">
+      <c r="H217" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="J216" t="s">
-        <v>847</v>
+      <c r="J217" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="897" spans="7:7" x14ac:dyDescent="0.15">

--- a/采购单规范v0.2/发票-凭证表.xlsx
+++ b/采购单规范v0.2/发票-凭证表.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soda\Documents\GitHub\AboutMoney2017\采购单规范v0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\Desktop\170615整理发票\github_repo\采购单规范v0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="-60" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="5775" yWindow="540" windowWidth="19395" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="875">
   <si>
     <t>﻿序号</t>
   </si>
@@ -3731,11 +3731,118 @@
   <si>
     <t>43252219770101453600</t>
   </si>
+  <si>
+    <t>40433054</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄禹尧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-05-16 摄像头组 黄禹尧 116元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4403162320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>440300326597417</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40709861</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-05-17 摄像头组 黄禹尧 233元</t>
+  </si>
+  <si>
+    <t>914403003601046553</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00858694</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02-23 摄像头组 黄禹尧 100元</t>
+  </si>
+  <si>
+    <t>144001601320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>43232219690720623901</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13915610</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-11-22 摄像头组 黄禹尧 583.00元</t>
+  </si>
+  <si>
+    <t>4403161320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>44030400DK00395</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>06348135</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-4-15 摄像头组 黄禹尧 110.80元</t>
+  </si>
+  <si>
+    <t>5100161320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>91510105327438805G</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11849189</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄禹尧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-3-14 摄像头组 黄禹尧 173.00 元</t>
+  </si>
+  <si>
+    <t>133021423303</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>92330282MA2847B5X7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
@@ -3905,7 +4012,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3980,6 +4087,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4015,6 +4139,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4193,8 +4334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L897"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="D219" sqref="D219"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F224" sqref="F224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10323,6 +10465,180 @@
       </c>
       <c r="J217" t="s">
         <v>615</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C218" s="2">
+        <v>42871</v>
+      </c>
+      <c r="D218" t="s">
+        <v>848</v>
+      </c>
+      <c r="E218" t="s">
+        <v>849</v>
+      </c>
+      <c r="F218">
+        <v>116</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="J218" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C219" s="2">
+        <v>42872</v>
+      </c>
+      <c r="D219" t="s">
+        <v>848</v>
+      </c>
+      <c r="E219" t="s">
+        <v>854</v>
+      </c>
+      <c r="F219">
+        <v>233</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="J219" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C220" s="2">
+        <v>42789</v>
+      </c>
+      <c r="D220" t="s">
+        <v>848</v>
+      </c>
+      <c r="E220" t="s">
+        <v>857</v>
+      </c>
+      <c r="F220">
+        <v>100</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="J220" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C221" s="2">
+        <v>42696</v>
+      </c>
+      <c r="D221" t="s">
+        <v>848</v>
+      </c>
+      <c r="E221" t="s">
+        <v>861</v>
+      </c>
+      <c r="F221">
+        <v>583</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="J221" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C222" s="2">
+        <v>42843</v>
+      </c>
+      <c r="D222" t="s">
+        <v>848</v>
+      </c>
+      <c r="E222" t="s">
+        <v>865</v>
+      </c>
+      <c r="F222">
+        <v>110.8</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="J222" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C223" s="2">
+        <v>42814</v>
+      </c>
+      <c r="D223" t="s">
+        <v>870</v>
+      </c>
+      <c r="E223" t="s">
+        <v>871</v>
+      </c>
+      <c r="F223">
+        <v>173</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="J223" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="897" spans="7:7" x14ac:dyDescent="0.15">

--- a/采购单规范v0.2/发票-凭证表.xlsx
+++ b/采购单规范v0.2/发票-凭证表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\Desktop\170615整理发票\github_repo\采购单规范v0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop Documents\TU_smart\AboutMoney2017\采购单规范v0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="881">
   <si>
     <t>﻿序号</t>
   </si>
@@ -3838,11 +3838,34 @@
     <t>浙江国税</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>77564471</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-06-05 信标组 孟硕 308.00元</t>
+  </si>
+  <si>
+    <t>4400171320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>33038219860114361801</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东国税</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
@@ -4012,7 +4035,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4087,23 +4110,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4139,23 +4145,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4335,8 +4324,8 @@
   <dimension ref="A1:L897"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F224" sqref="F224"/>
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J224" sqref="J224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10639,6 +10628,35 @@
       </c>
       <c r="J223" t="s">
         <v>874</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C224" s="2">
+        <v>42892</v>
+      </c>
+      <c r="D224" t="s">
+        <v>876</v>
+      </c>
+      <c r="E224" t="s">
+        <v>877</v>
+      </c>
+      <c r="F224">
+        <v>308</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="J224" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="897" spans="7:7" x14ac:dyDescent="0.15">
